--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.87</v>
+        <v>1.38</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.84</v>
+        <v>5.59</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.64</v>
+        <v>5.32</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.05</v>
+        <v>7.05</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.74</v>
+        <v>6.19</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>29/05/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>22/05/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="R64" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>22/05/2023 14:42</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="Q64" t="inlineStr">
+      <c r="T64" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>22/05/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>29/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>7.45</v>
+        <v>3.84</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>7.95</v>
+        <v>3.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>11.51</v>
+        <v>4.05</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>13.49</v>
+        <v>3.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.87</v>
+        <v>4.1</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:54</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:45</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>4.26</v>
+        <v>4</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.56</v>
+        <v>4.2</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>5.48</v>
+        <v>3.32</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>6.89</v>
+        <v>3.63</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>4.31</v>
+        <v>3.94</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4.1</v>
+        <v>3.87</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4.48</v>
+        <v>3.9</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:54</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:45</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.2</v>
+        <v>4.56</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.32</v>
+        <v>5.48</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.63</v>
+        <v>6.89</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:40</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>6.7</v>
+        <v>6.05</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>6.68</v>
+        <v>6.76</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>9.140000000000001</v>
+        <v>7.63</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>9.109999999999999</v>
+        <v>10.37</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,54 +16405,54 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.92</v>
+        <v>3.11</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.02</v>
+        <v>3.62</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:26</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.63</v>
+        <v>4.41</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.96</v>
+        <v>2.16</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>4.42</v>
+        <v>1.85</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>4.8</v>
+        <v>1.84</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N175" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>21/09/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>21/09/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
         <v>4.21</v>
       </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P175" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:34</t>
-        </is>
-      </c>
-      <c r="R175" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T175" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,63 +16589,63 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>3.11</v>
+        <v>1.92</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.62</v>
+        <v>2.02</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>24/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:31</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
           <t>24/09/2023 16:44</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:49</t>
-        </is>
-      </c>
-      <c r="R176" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:44</t>
-        </is>
-      </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.34</v>
+        <v>4.42</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.26</v>
+        <v>4.8</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>6.05</v>
+        <v>4.21</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>6.76</v>
+        <v>4.45</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>24/09/2023 16:34</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
           <t>24/09/2023 16:58</t>
         </is>
       </c>
-      <c r="R177" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>17/09/2023 18:43</t>
-        </is>
-      </c>
-      <c r="T177" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:58</t>
-        </is>
-      </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>4</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>3</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.84</v>
+        <v>1.28</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:40</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.03</v>
+        <v>6.7</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4.04</v>
+        <v>6.68</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.95</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.21</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
         </is>
       </c>
     </row>
@@ -17474,6 +17474,98 @@
       <c r="V185" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-ham-kam/fJkwP7d7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-viking/OdCRnW5B/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.61</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.12</v>
+        <v>2.15</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.54</v>
+        <v>3.36</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:47</t>
+          <t>16/04/2023 16:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>3.46</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>3.62</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.69</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4.62</v>
+        <v>3.12</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.97</v>
+        <v>3.54</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,32 +1440,32 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.37</v>
+        <v>3.36</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>16/04/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:33</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>16/04/2023 16:54</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:33</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>16/04/2023 16:54</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>4.62</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:44</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5.03</v>
+        <v>4.37</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.29</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>7.07</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:44</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.94</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.37</v>
+        <v>5.03</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.49</v>
+        <v>4.29</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.95</v>
+        <v>7.07</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>2.09</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.15</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6.18</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>9.33</v>
+        <v>3.49</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>9.42</v>
+        <v>3.95</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>6.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>6.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:55</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.46</v>
+        <v>9.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.62</v>
+        <v>9.42</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:28</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.09</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.18</v>
+        <v>3.28</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>8.9</v>
+        <v>3.45</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>8.07</v>
+        <v>3.16</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
         </is>
       </c>
     </row>
@@ -2413,46 +2413,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.13</v>
+        <v>1.32</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:28</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.51</v>
+        <v>6.09</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.46</v>
+        <v>5.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.55</v>
+        <v>8.9</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.2</v>
+        <v>8.07</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:25</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.47</v>
+        <v>1.81</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.28</v>
+        <v>4.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:52</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.45</v>
+        <v>4.41</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.16</v>
+        <v>4.22</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
         </is>
       </c>
     </row>
@@ -2597,30 +2597,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>3.51</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.41</v>
+        <v>3.55</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.07</v>
+        <v>5.78</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.08</v>
+        <v>5.08</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.87</v>
+        <v>8.73</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.3</v>
+        <v>7.28</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.15</v>
+        <v>2.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.64</v>
+        <v>2.72</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.32</v>
+        <v>2.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>2.15</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5.78</v>
+        <v>3.61</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>8.73</v>
+        <v>3.02</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.28</v>
+        <v>3.64</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.39</v>
+        <v>1.69</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.67</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>4.08</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.95</v>
+        <v>4.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.72</v>
+        <v>5.3</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -3517,46 +3517,46 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Odd</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.19</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 17:55</t>
+          <t>03/05/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>8.050000000000001</v>
+        <v>3.63</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>13.69</v>
+        <v>2.54</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>11.2</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>1.23</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>03/05/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="R35" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>03/05/2023 17:59</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
         </is>
       </c>
     </row>
@@ -3701,26 +3701,26 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6.49</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.92</v>
+        <v>6.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.74</v>
+        <v>13.69</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.9</v>
+        <v>11.2</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.07</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>07/05/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>07/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>07/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R38" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.39</v>
+        <v>1.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.25</v>
+        <v>2.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>07/05/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>03/05/2023 18:12</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q39" t="inlineStr">
+      <c r="T39" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:58</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:57</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.21</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.05</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.57</v>
+        <v>2.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.33</v>
+        <v>2.87</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:41</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.63</v>
+        <v>4.39</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>5.25</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.5</v>
+        <v>3.92</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.51</v>
+        <v>4.15</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.69</v>
+        <v>1.81</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.87</v>
+        <v>1.67</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:41</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>2.07</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:55</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.23</v>
+        <v>3.49</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.03</v>
+        <v>4.02</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
         </is>
       </c>
     </row>
@@ -4621,62 +4621,62 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.01</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:17</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.28</v>
+        <v>4.79</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.36</v>
+        <v>5.64</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.3</v>
+        <v>6.53</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.25</v>
+        <v>10.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:17</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.79</v>
+        <v>3.28</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.64</v>
+        <v>3.36</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
+          <t>13/05/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="R47" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>07/05/2023 19:43</t>
-        </is>
-      </c>
-      <c r="T47" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.58</v>
+        <v>1.28</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.8</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>13/05/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>13/05/2023 16:58</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>08/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>13/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R48" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>08/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1.89</v>
+        <v>3.58</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>08/05/2023 13:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>13/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>08/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>13/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>08/05/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="N49" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
         </is>
       </c>
     </row>
@@ -4989,46 +4989,46 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.28</v>
+        <v>3.71</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.27</v>
+        <v>3.88</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:37</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6.04</v>
+        <v>3.88</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>6.13</v>
+        <v>3.99</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -5036,15 +5036,15 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>10.34</v>
+        <v>1.98</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>11.56</v>
+        <v>1.92</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.71</v>
+        <v>1.89</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.88</v>
+        <v>1.75</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>4.24</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.92</v>
+        <v>5.33</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>1.74</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,48 +5288,48 @@
         </is>
       </c>
       <c r="L53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>16/05/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>13/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>16/05/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>13/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
         <v>5.3</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>16/05/2023 17:59</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>13/05/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>16/05/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>13/05/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>1.72</v>
-      </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:57</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N54" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>13/05/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
         <v>4.07</v>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>13/05/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:46</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.53</v>
+        <v>4.76</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.21</v>
+        <v>4.88</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
         </is>
       </c>
     </row>
@@ -5449,30 +5449,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>1.36</v>
+        <v>4.33</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.32</v>
+        <v>5.67</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,15 +5480,15 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>5.07</v>
+        <v>4.06</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>5.53</v>
+        <v>4.04</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,24 +5496,24 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>9.029999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>10.58</v>
+        <v>1.65</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:53</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.07</v>
+        <v>3.45</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.76</v>
+        <v>6.12</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.88</v>
+        <v>5.65</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.64</v>
+        <v>2.23</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.31</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:46</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.61</v>
+        <v>4.53</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.3</v>
+        <v>3.21</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:57</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.33</v>
+        <v>5.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>5.53</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.12</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.65</v>
+        <v>10.58</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5.67</v>
+        <v>5.3</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.04</v>
+        <v>3.82</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:53</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.22</v>
+        <v>5.59</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.38</v>
+        <v>5.32</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>5.63</v>
+        <v>7.05</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.81</v>
+        <v>6.19</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>5.59</v>
+        <v>4.73</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>5.32</v>
+        <v>4.49</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.05</v>
+        <v>6.85</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>6.19</v>
+        <v>6.32</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>7.45</v>
+        <v>4.22</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>7.95</v>
+        <v>4.38</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>11.51</v>
+        <v>5.63</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>13.49</v>
+        <v>5.81</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.24</v>
+        <v>1.21</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.54</v>
+        <v>1.2</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:54</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.36</v>
+        <v>7.45</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.17</v>
+        <v>7.95</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.39</v>
+        <v>11.51</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.15</v>
+        <v>13.49</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.73</v>
+        <v>3.84</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.49</v>
+        <v>3.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>6.85</v>
+        <v>4.05</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>6.32</v>
+        <v>3.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.84</v>
+        <v>3.36</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.64</v>
+        <v>3.17</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.05</v>
+        <v>3.39</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.74</v>
+        <v>3.15</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.83</v>
+        <v>1.88</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.81</v>
+        <v>1.72</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:47</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.58</v>
+        <v>3.86</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.35</v>
+        <v>3.96</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:32</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.46</v>
+        <v>3.98</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.67</v>
+        <v>5.05</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-odds-bk/823sNW8T/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-haugesund/EqtAIjHp/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.59</v>
+        <v>2.83</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.67</v>
+        <v>2.81</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:47</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.29</v>
+        <v>3.58</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.99</v>
+        <v>3.35</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:59</t>
+          <t>04/06/2023 16:32</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.53</v>
+        <v>2.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>29/05/2023 19:42</t>
+          <t>29/05/2023 17:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.53</v>
+        <v>2.67</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>04/06/2023 16:58</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-ham-kam/faawOCgN/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-odds-bk/823sNW8T/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.21</v>
+        <v>4.29</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.39</v>
+        <v>3.99</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:59</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.35</v>
+        <v>5.53</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>30/05/2023 06:42</t>
+          <t>29/05/2023 19:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.84</v>
+        <v>5.53</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>04/06/2023 16:28</t>
+          <t>04/06/2023 16:58</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-stabaek/0x0ZOhvH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-ham-kam/faawOCgN/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
       <c r="J73" t="n">
-        <v>4.68</v>
+        <v>1.64</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5.32</v>
+        <v>1.58</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.01</v>
+        <v>4.21</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.1</v>
+        <v>4.39</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:56</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.75</v>
+        <v>5.35</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.67</v>
+        <v>5.84</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>04/06/2023 16:55</t>
+          <t>04/06/2023 16:28</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-brann/Mo1VPYOA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-stabaek/0x0ZOhvH/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>4.68</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.72</v>
+        <v>5.32</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.86</v>
+        <v>4.01</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.96</v>
+        <v>4.1</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.98</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>29/05/2023 17:12</t>
+          <t>30/05/2023 06:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.05</v>
+        <v>1.67</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/06/2023 16:57</t>
+          <t>04/06/2023 16:55</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-haugesund/EqtAIjHp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-brann/Mo1VPYOA/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>05/06/2023 07:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.64</v>
+        <v>2.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.52</v>
+        <v>3.28</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>05/06/2023 07:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:26</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.09</v>
+        <v>2.86</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>04/06/2023 17:12</t>
+          <t>05/06/2023 07:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/06/2023 16:53</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stromsgodset/tKaiVT0j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-rosenborg/nc0mW9op/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.92</v>
+        <v>1.64</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.28</v>
+        <v>4.52</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.29</v>
+        <v>4.38</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/06/2023 16:26</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.86</v>
+        <v>5.09</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>05/06/2023 07:12</t>
+          <t>04/06/2023 17:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:53</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-rosenborg/nc0mW9op/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stromsgodset/tKaiVT0j/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.16</v>
+        <v>2.15</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:42</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>7.44</v>
+        <v>4.04</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>9.01</v>
+        <v>3.39</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>12.74</v>
+        <v>4.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>16.88</v>
+        <v>3.73</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/06/2023 16:58</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-ham-kam/faL8whgA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sandefjord/lMKCxC8G/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.34</v>
+        <v>1.21</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.57</v>
+        <v>1.16</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:42</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.31</v>
+        <v>7.44</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.18</v>
+        <v>9.01</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.24</v>
+        <v>12.74</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.1</v>
+        <v>16.88</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/06/2023 16:59</t>
+          <t>11/06/2023 16:58</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-tromso/tdH4vYw4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-ham-kam/faL8whgA/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>3</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Sandefjord</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
       <c r="J82" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.52</v>
+        <v>3.24</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.73</v>
+        <v>3.1</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 16:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sandefjord/lMKCxC8G/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-tromso/tdH4vYw4/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.32</v>
+        <v>4.92</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.04</v>
+        <v>5.85</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.61</v>
+        <v>8.07</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.39</v>
+        <v>1.58</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.44</v>
+        <v>4.32</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.22</v>
+        <v>4.04</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.04</v>
+        <v>5.9</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.36</v>
+        <v>5.61</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.25</v>
+        <v>2.39</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.34</v>
+        <v>2.38</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:45</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>6.6</v>
+        <v>3.44</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6.05</v>
+        <v>3.22</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:51</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>11.51</v>
+        <v>3.04</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>8.33</v>
+        <v>3.36</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:54</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Ham-Kam</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>3.17</v>
+        <v>1.25</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.27</v>
+        <v>1.34</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:45</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.34</v>
+        <v>6.6</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.57</v>
+        <v>6.05</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:51</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.39</v>
+        <v>11.51</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.27</v>
+        <v>8.33</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:54</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.48</v>
+        <v>3.17</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.36</v>
+        <v>3.27</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.92</v>
+        <v>3.34</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>5.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.07</v>
+        <v>2.27</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.33</v>
+        <v>3.71</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.76</v>
+        <v>4.25</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.16</v>
+        <v>2.81</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.36</v>
+        <v>3.39</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.54</v>
+        <v>3.76</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.78</v>
+        <v>4.06</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.94</v>
+        <v>2.05</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>4.85</v>
+        <v>2.68</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>6.03</v>
+        <v>2.75</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.42</v>
+        <v>3.35</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.58</v>
+        <v>3.33</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.66</v>
+        <v>2.77</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.55</v>
+        <v>2.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.81</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.39</v>
+        <v>2.36</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.06</v>
+        <v>3.78</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.05</v>
+        <v>2.94</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:56</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.6</v>
+        <v>4.85</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.91</v>
+        <v>6.03</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:57</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.32</v>
+        <v>4.42</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.71</v>
+        <v>4.58</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.25</v>
+        <v>1.55</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:32</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.92</v>
+        <v>4.71</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.6</v>
+        <v>5.64</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:48</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.2</v>
+        <v>5.56</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.43</v>
+        <v>7.92</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Ham-Kam</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:32</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.71</v>
+        <v>5.27</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.64</v>
+        <v>5.71</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:48</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.56</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>7.92</v>
+        <v>8.32</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.99</v>
+        <v>1.68</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.94</v>
+        <v>2.18</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:58</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.41</v>
+        <v>5.2</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.46</v>
+        <v>3.43</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.38</v>
+        <v>2.99</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.36</v>
+        <v>2.94</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>5.27</v>
+        <v>3.45</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>5.71</v>
+        <v>3.58</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>8.119999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>8.32</v>
+        <v>2.46</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.43</v>
+        <v>2.43</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.41</v>
+        <v>2.31</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:57</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>5.15</v>
+        <v>3.62</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>5.47</v>
+        <v>3.72</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:52</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>6.57</v>
+        <v>2.85</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>7.23</v>
+        <v>3.07</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-haugesund/dOHf62pB/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-stromsgodset/j5asBQVu/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.15</v>
+        <v>4.85</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.04</v>
+        <v>4.82</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.79</v>
+        <v>6.91</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.08</v>
+        <v>6.34</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-odds-bk/IXIj7rV4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-ham-kam/xM1g8OFb/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.85</v>
+        <v>4.15</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.82</v>
+        <v>4.04</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.91</v>
+        <v>4.79</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>6.34</v>
+        <v>5.08</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:57</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-ham-kam/xM1g8OFb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-odds-bk/IXIj7rV4/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Stromsgodset</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
       <c r="J130" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.31</v>
+        <v>1.41</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.62</v>
+        <v>5.15</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.72</v>
+        <v>5.47</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>30/07/2023 16:52</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.85</v>
+        <v>6.57</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.07</v>
+        <v>7.23</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-stromsgodset/j5asBQVu/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-haugesund/dOHf62pB/</t>
         </is>
       </c>
     </row>
@@ -13361,46 +13361,46 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>13/08/2023 16:48</t>
+          <t>13/08/2023 16:55</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.28</v>
+        <v>3.66</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -13408,15 +13408,15 @@
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-viking/dnMCCw7p/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-ham-kam/0GzsIaqN/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 19:42</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
+          <t>13/08/2023 16:48</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
           <t>13/08/2023 16:55</t>
         </is>
       </c>
-      <c r="N142" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P142" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Q142" t="inlineStr">
+      <c r="R142" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U142" t="inlineStr">
         <is>
           <t>13/08/2023 16:55</t>
         </is>
       </c>
-      <c r="R142" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T142" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:55</t>
-        </is>
-      </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-ham-kam/0GzsIaqN/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-viking/dnMCCw7p/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Viking</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
       <c r="J164" t="n">
-        <v>4.02</v>
+        <v>2.42</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.25</v>
+        <v>3.68</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.99</v>
+        <v>3.64</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.9</v>
+        <v>2.91</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-viking/fuRDyotD/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stromsgodset/pKW2b8mQ/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>2</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Stromsgodset</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.42</v>
+        <v>4.02</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.68</v>
+        <v>4.25</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.64</v>
+        <v>3.99</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.91</v>
+        <v>1.9</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stromsgodset/pKW2b8mQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-viking/fuRDyotD/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:40</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>6.05</v>
+        <v>6.7</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>6.76</v>
+        <v>6.68</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>7.63</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>10.37</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>3.11</v>
+        <v>4.42</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.62</v>
+        <v>4.8</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.93</v>
+        <v>4.21</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:26</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.03</v>
+        <v>3.76</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.04</v>
+        <v>3.63</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.21</v>
+        <v>3.88</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,54 +16589,54 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.92</v>
+        <v>3.11</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.02</v>
+        <v>3.62</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:26</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.63</v>
+        <v>4.41</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.96</v>
+        <v>2.16</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16673,62 +16673,62 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>4.42</v>
+        <v>1.34</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>4.8</v>
+        <v>1.26</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>4.21</v>
+        <v>6.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>1.73</v>
+        <v>7.63</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.64</v>
+        <v>10.37</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.28</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:40</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>6.7</v>
+        <v>4.03</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>6.68</v>
+        <v>4.04</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>9.140000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>9.109999999999999</v>
+        <v>4.21</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -17566,6 +17566,650 @@
       <c r="V186" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-viking/OdCRnW5B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>5</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>3</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45207.80208333334</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:08</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:08</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:07</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-brann/MRKkiocc/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.47</v>
+        <v>4.08</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.02</v>
+        <v>4.87</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.07</v>
+        <v>3.61</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.87</v>
+        <v>3.02</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.3</v>
+        <v>3.64</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.32</v>
+        <v>5.3</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.07</v>
+        <v>4.08</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>9.029999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>10.58</v>
+        <v>1.72</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5.3</v>
+        <v>1.32</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.08</v>
+        <v>5.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.82</v>
+        <v>5.53</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.72</v>
+        <v>10.58</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.62</v>
+        <v>1.84</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.93</v>
+        <v>4.03</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.41</v>
+        <v>4.04</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.9</v>
+        <v>4.21</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.26</v>
+        <v>3.62</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>6.05</v>
+        <v>3.93</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>6.76</v>
+        <v>4.41</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.63</v>
+        <v>2.16</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>10.37</v>
+        <v>1.9</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.03</v>
+        <v>6.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4.04</v>
+        <v>6.76</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.95</v>
+        <v>7.63</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.21</v>
+        <v>10.37</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>3.21</v>
+        <v>2.31</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.29</v>
+        <v>3.04</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>4.36</v>
+        <v>3.83</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4.76</v>
+        <v>3.94</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.39</v>
+        <v>3.11</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.12</v>
+        <v>3.28</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17777,30 +17777,30 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Aalesund</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>2</v>
-      </c>
       <c r="J189" t="n">
-        <v>1.37</v>
+        <v>2.15</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.29</v>
+        <v>2.03</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -17808,15 +17808,15 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>5.21</v>
+        <v>3.75</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,24 +17824,24 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>7.99</v>
+        <v>3.31</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>10.82</v>
+        <v>3.57</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.13</v>
+        <v>1.6</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.83</v>
+        <v>4.36</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.94</v>
+        <v>4.76</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.11</v>
+        <v>4.39</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.28</v>
+        <v>5.12</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,63 +17969,63 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.04</v>
+        <v>2.29</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T191" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>2.15</v>
+        <v>1.37</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.03</v>
+        <v>1.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,15 +18084,15 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.75</v>
+        <v>5.21</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.9</v>
+        <v>5.99</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -18100,24 +18100,24 @@
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.31</v>
+        <v>7.99</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.57</v>
+        <v>10.82</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -18210,6 +18210,98 @@
       <c r="V193" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-brann/MRKkiocc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>4</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-sandefjord/IgEbkPR9/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V194"/>
+  <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18305,6 +18305,98 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>3</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-molde/CGD2lqsG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V195"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Sandefjord</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.82</v>
+        <v>5.3</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.03</v>
+        <v>3.82</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.27</v>
+        <v>1.67</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.29</v>
+        <v>1.72</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5.3</v>
+        <v>1.32</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.08</v>
+        <v>5.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.82</v>
+        <v>5.53</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.72</v>
+        <v>10.58</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.32</v>
+        <v>1.82</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,40 +5940,40 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>5.07</v>
+        <v>4.09</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>5.53</v>
+        <v>4.03</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>9.029999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>10.58</v>
+        <v>4.29</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1.28</v>
+        <v>4.42</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.28</v>
+        <v>4.8</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:40</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>6.7</v>
+        <v>4.21</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>6.68</v>
+        <v>4.45</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>9.140000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>9.109999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>4.42</v>
+        <v>1.92</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>4.8</v>
+        <v>2.02</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:26</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.21</v>
+        <v>3.76</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.45</v>
+        <v>3.63</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>1.73</v>
+        <v>3.96</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>1.64</v>
+        <v>3.88</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J175" t="n">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:26</t>
+          <t>24/09/2023 16:40</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.76</v>
+        <v>6.7</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.63</v>
+        <v>6.68</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.96</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.88</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.85</v>
+        <v>3.11</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.84</v>
+        <v>3.62</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>4.03</v>
+        <v>3.93</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.04</v>
+        <v>4.41</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.21</v>
+        <v>1.9</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>3.11</v>
+        <v>1.34</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.62</v>
+        <v>1.26</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.93</v>
+        <v>6.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.41</v>
+        <v>6.76</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.16</v>
+        <v>7.63</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.9</v>
+        <v>10.37</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>6.05</v>
+        <v>4.03</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>6.76</v>
+        <v>4.04</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>7.63</v>
+        <v>3.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>10.37</v>
+        <v>4.21</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>2.31</v>
+        <v>1.37</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.51</v>
+        <v>1.29</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.6</v>
+        <v>5.21</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.42</v>
+        <v>5.99</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
           <t>08/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R187" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>01/10/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T187" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U187" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,54 +17693,54 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.22</v>
+        <v>3.21</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.94</v>
+        <v>3.56</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.11</v>
+        <v>2.29</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.75</v>
+        <v>4.36</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.9</v>
+        <v>4.76</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.31</v>
+        <v>4.39</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.57</v>
+        <v>5.12</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4.36</v>
+        <v>3.83</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.76</v>
+        <v>3.94</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.39</v>
+        <v>3.11</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>5.12</v>
+        <v>3.28</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,63 +17969,63 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>3.21</v>
+        <v>2.31</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>2.29</v>
+        <v>3.04</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
         <v>1</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Aalesund</t>
-        </is>
-      </c>
-      <c r="I192" t="n">
-        <v>2</v>
-      </c>
       <c r="J192" t="n">
-        <v>1.37</v>
+        <v>2.15</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.29</v>
+        <v>2.03</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,15 +18084,15 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>5.21</v>
+        <v>3.75</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -18100,24 +18100,24 @@
         </is>
       </c>
       <c r="R192" t="n">
-        <v>7.99</v>
+        <v>3.31</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>10.82</v>
+        <v>3.57</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -18394,6 +18394,558 @@
       <c r="V195" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/brann-molde/CGD2lqsG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-valerenga/ITr3nNBS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>3</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>3</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45221.80208333334</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>3</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>4</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-tromso/S2YxtLld/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.39</v>
+        <v>1.32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.67</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>5.78</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>5.08</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.95</v>
+        <v>8.73</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.72</v>
+        <v>7.28</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.32</v>
+        <v>2.39</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>2.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.78</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>8.73</v>
+        <v>2.95</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7.28</v>
+        <v>2.72</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>1.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>03/05/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>03/05/2023 17:59</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Odd</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.19</v>
+        <v>2.75</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 17:55</t>
+          <t>03/05/2023 17:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>8.050000000000001</v>
+        <v>3.63</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>13.69</v>
+        <v>2.54</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>11.2</v>
+        <v>2.38</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
         </is>
       </c>
     </row>
@@ -3701,26 +3701,26 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6.49</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.92</v>
+        <v>6.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.74</v>
+        <v>13.69</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.9</v>
+        <v>11.2</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>07/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>07/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>1.81</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>03/05/2023 18:12</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:55</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q39" t="inlineStr">
+      <c r="T39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:58</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:57</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.21</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.05</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.57</v>
+        <v>2.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.33</v>
+        <v>2.87</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:41</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:55</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.5</v>
+        <v>3.96</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.69</v>
+        <v>4.23</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>07/05/2023 16:41</t>
+          <t>07/05/2023 16:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.39</v>
+        <v>1.73</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5.25</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:57</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.92</v>
+        <v>4.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>5.05</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.81</v>
+        <v>4.57</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.67</v>
+        <v>7.33</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:58</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
         </is>
       </c>
     </row>
@@ -4989,62 +4989,62 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.32</v>
+        <v>1.47</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.01</v>
+        <v>1.34</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:17</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.28</v>
+        <v>4.79</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.36</v>
+        <v>5.64</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.3</v>
+        <v>6.53</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.25</v>
+        <v>10.47</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:17</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.79</v>
+        <v>3.28</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.64</v>
+        <v>3.36</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
+          <t>13/05/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="R51" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>07/05/2023 19:43</t>
-        </is>
-      </c>
-      <c r="T51" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>4.31</v>
+        <v>1.94</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:45</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4.48</v>
+        <v>4.2</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         </is>
       </c>
       <c r="R169" t="n">
-        <v>1.86</v>
+        <v>3.32</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1.65</v>
+        <v>3.63</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:54</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.94</v>
+        <v>4.31</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:45</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.2</v>
+        <v>4.48</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.32</v>
+        <v>1.86</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.63</v>
+        <v>1.65</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:54</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>2.31</v>
+        <v>1.37</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.51</v>
+        <v>1.29</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.6</v>
+        <v>5.21</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.42</v>
+        <v>5.99</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
           <t>08/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R187" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>01/10/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T187" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U187" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,14 +17693,14 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.94</v>
+        <v>3.42</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.28</v>
+        <v>2.98</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -17777,30 +17777,30 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -17808,40 +17808,40 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.31</v>
+        <v>3.11</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4.36</v>
+        <v>3.75</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.76</v>
+        <v>3.9</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.39</v>
+        <v>3.31</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>5.12</v>
+        <v>3.57</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -17961,71 +17961,71 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.53</v>
+        <v>4.36</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.56</v>
+        <v>4.76</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>2.29</v>
+        <v>4.39</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.27</v>
+        <v>5.12</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,63 +18061,63 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1.37</v>
+        <v>3.21</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>5.21</v>
+        <v>3.53</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5.99</v>
+        <v>3.56</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>7.99</v>
+        <v>2.29</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>10.82</v>
+        <v>3.27</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,48 +18536,48 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
           <t>22/10/2023 16:53</t>
         </is>
       </c>
-      <c r="N197" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O197" t="inlineStr">
+      <c r="R197" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S197" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P197" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:54</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T197" t="n">
-        <v>4.14</v>
+        <v>3.75</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="n">
-        <v>1.79</v>
+        <v>3.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.98</v>
+        <v>3.58</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.01</v>
+        <v>4.25</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.88</v>
+        <v>4.21</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.27</v>
+        <v>1.82</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -18705,14 +18705,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>3.58</v>
+        <v>1.97</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
@@ -18728,7 +18728,7 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>4.25</v>
+        <v>3.63</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,32 +18736,32 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4.21</v>
+        <v>3.56</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
+          <t>22/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
           <t>22/10/2023 16:53</t>
         </is>
       </c>
-      <c r="R199" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T199" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U199" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:53</t>
-        </is>
-      </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
         </is>
       </c>
     </row>
@@ -19682,6 +19682,98 @@
       <c r="V209" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/molde-tromso/xYFT2rd9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45234.75</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>3</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-viking/GOz3HsB2/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V210"/>
+  <dimension ref="A1:V216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.58</v>
+        <v>1.28</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.8</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>13/05/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>13/05/2023 16:58</t>
         </is>
       </c>
-      <c r="N48" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>08/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>13/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R48" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>08/05/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>2</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1.28</v>
+        <v>2.32</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.27</v>
+        <v>2.01</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:37</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>6.04</v>
+        <v>3.28</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>6.13</v>
+        <v>3.36</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>10.34</v>
+        <v>3.3</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>11.56</v>
+        <v>4.25</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,54 +5089,54 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.32</v>
+        <v>3.58</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.01</v>
+        <v>3.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.28</v>
+        <v>3.74</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.36</v>
+        <v>3.77</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.3</v>
+        <v>2.03</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1.6</v>
+        <v>3.78</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,48 +15776,48 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.51</v>
+        <v>3.94</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
+          <t>17/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>04/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
           <t>17/09/2023 16:51</t>
         </is>
       </c>
-      <c r="N167" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O167" t="inlineStr">
+      <c r="R167" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S167" t="inlineStr">
         <is>
           <t>04/09/2023 16:12</t>
         </is>
       </c>
-      <c r="P167" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:38</t>
-        </is>
-      </c>
-      <c r="R167" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>04/09/2023 16:12</t>
-        </is>
-      </c>
       <c r="T167" t="n">
-        <v>6.89</v>
+        <v>1.79</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>3.78</v>
+        <v>1.6</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.94</v>
+        <v>1.51</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.87</v>
+        <v>4.26</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.9</v>
+        <v>4.56</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>1.93</v>
+        <v>5.48</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>1.79</v>
+        <v>6.89</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.94</v>
+        <v>4.31</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:45</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4.2</v>
+        <v>4.48</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3.32</v>
+        <v>1.86</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>3.63</v>
+        <v>1.65</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:54</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>4.31</v>
+        <v>1.94</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:45</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.48</v>
+        <v>4.2</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         </is>
       </c>
       <c r="R170" t="n">
-        <v>1.86</v>
+        <v>3.32</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>1.65</v>
+        <v>3.63</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:54</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:40</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>6.05</v>
+        <v>6.7</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>6.76</v>
+        <v>6.68</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>7.63</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>10.37</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:55</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>3.11</v>
+        <v>1.92</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.62</v>
+        <v>2.02</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
+          <t>24/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:31</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>24/09/2023 16:44</t>
         </is>
       </c>
-      <c r="N174" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P174" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:49</t>
-        </is>
-      </c>
-      <c r="R174" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:44</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>1.85</v>
+        <v>4.42</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.84</v>
+        <v>4.8</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.03</v>
+        <v>4.21</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.04</v>
+        <v>4.45</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.95</v>
+        <v>1.73</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.21</v>
+        <v>1.64</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,54 +16589,54 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.92</v>
+        <v>3.11</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.02</v>
+        <v>3.62</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:26</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.76</v>
+        <v>3.93</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.63</v>
+        <v>4.41</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.96</v>
+        <v>2.16</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.88</v>
+        <v>1.9</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16673,62 +16673,62 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>4.42</v>
+        <v>1.34</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>4.8</v>
+        <v>1.26</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>4.21</v>
+        <v>6.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.45</v>
+        <v>6.76</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>1.73</v>
+        <v>7.63</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.64</v>
+        <v>10.37</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.28</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:40</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>6.7</v>
+        <v>4.03</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>6.68</v>
+        <v>4.04</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>9.140000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>9.109999999999999</v>
+        <v>4.21</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:55</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sandefjord/Y7JEkYLh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>3.17</v>
+        <v>1.83</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,15 +17156,15 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.95</v>
+        <v>1.83</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>01/10/2023 16:39</t>
+          <t>01/10/2023 16:54</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>3.62</v>
+        <v>4.32</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -17172,15 +17172,15 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.56</v>
+        <v>4.38</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>01/10/2023 16:52</t>
+          <t>01/10/2023 16:57</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>2.24</v>
+        <v>3.82</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17188,16 +17188,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>2.45</v>
+        <v>3.91</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>01/10/2023 15:46</t>
+          <t>01/10/2023 16:57</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-valerenga/vBPdYHYR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-viking/QwbMSkcr/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>1.83</v>
+        <v>3.17</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.83</v>
+        <v>2.95</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>01/10/2023 16:54</t>
+          <t>01/10/2023 16:39</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>4.32</v>
+        <v>3.62</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>4.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>01/10/2023 16:57</t>
+          <t>01/10/2023 16:52</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>3.82</v>
+        <v>2.24</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.91</v>
+        <v>2.45</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>01/10/2023 16:57</t>
+          <t>01/10/2023 15:46</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-viking/QwbMSkcr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-valerenga/vBPdYHYR/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.37</v>
+        <v>2.31</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.29</v>
+        <v>2.51</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>5.21</v>
+        <v>3.6</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>5.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>7.99</v>
+        <v>3.04</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>10.82</v>
+        <v>2.98</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,14 +17693,14 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J188" t="n">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.51</v>
+        <v>2.13</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.42</v>
+        <v>3.94</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17777,30 +17777,30 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Bodo/Glimt</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>3</v>
-      </c>
       <c r="J189" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -17808,40 +17808,40 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.75</v>
+        <v>4.36</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.9</v>
+        <v>4.76</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.31</v>
+        <v>4.39</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.57</v>
+        <v>5.12</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17961,71 +17961,71 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.74</v>
+        <v>3.21</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.6</v>
+        <v>2.26</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>4.36</v>
+        <v>3.53</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.39</v>
+        <v>2.29</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T191" t="n">
-        <v>5.12</v>
+        <v>3.27</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,63 +18061,63 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>3.21</v>
+        <v>1.37</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.53</v>
+        <v>5.21</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.56</v>
+        <v>5.99</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.29</v>
+        <v>7.99</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.27</v>
+        <v>10.82</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="n">
-        <v>1.79</v>
+        <v>3.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.98</v>
+        <v>3.58</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.01</v>
+        <v>4.25</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.88</v>
+        <v>4.21</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         </is>
       </c>
       <c r="R197" t="n">
-        <v>4.27</v>
+        <v>1.82</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
         <v>3</v>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I198" t="n">
-        <v>2</v>
-      </c>
       <c r="J198" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>3.58</v>
+        <v>2.28</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.25</v>
+        <v>3.74</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>1.95</v>
+        <v>3.29</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,48 +18720,48 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
+          <t>22/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
           <t>22/10/2023 16:53</t>
         </is>
       </c>
-      <c r="N199" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O199" t="inlineStr">
+      <c r="R199" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S199" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P199" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q199" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:54</t>
-        </is>
-      </c>
-      <c r="R199" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T199" t="n">
-        <v>4.14</v>
+        <v>3.75</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
         </is>
       </c>
     </row>
@@ -18789,22 +18789,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,15 +18812,15 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.74</v>
+        <v>3.63</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.52</v>
+        <v>3.56</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:54</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>3.29</v>
+        <v>4.14</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
         </is>
       </c>
     </row>
@@ -19774,6 +19774,558 @@
       <c r="V210" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-viking/GOz3HsB2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-odds-bk/2LnLhbY1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-haugesund/URv7G1Q8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-molde/CjUBFLuF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>3</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-valerenga/jsTFEueL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>4</v>
+      </c>
+      <c r="J215" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-bodo-glimt/b7SJDaAR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45235.80208333334</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stromsgodset/0GEo9JIr/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V216"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,14 +18521,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>3.58</v>
+        <v>1.97</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.25</v>
+        <v>3.63</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,32 +18552,32 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.21</v>
+        <v>3.56</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
+          <t>22/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
           <t>22/10/2023 16:53</t>
         </is>
       </c>
-      <c r="R197" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T197" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:53</t>
-        </is>
-      </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.74</v>
+        <v>4.01</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.51</v>
+        <v>4.27</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.29</v>
+        <v>3.75</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>4.01</v>
+        <v>3.74</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.88</v>
+        <v>3.52</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>4.27</v>
+        <v>3.51</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -18797,14 +18797,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.97</v>
+        <v>3.58</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.63</v>
+        <v>4.25</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,15 +18828,15 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.56</v>
+        <v>4.21</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>22/10/2023 16:54</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>3.42</v>
+        <v>1.82</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.14</v>
+        <v>1.95</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
         </is>
       </c>
     </row>
@@ -20326,6 +20326,98 @@
       <c r="V216" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stromsgodset/0GEo9JIr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>3</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sandefjord/OUmHgvJe/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.71</v>
+        <v>3.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.88</v>
+        <v>3.74</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.99</v>
+        <v>3.77</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Viking</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
       <c r="J51" t="n">
-        <v>3.58</v>
+        <v>3.71</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.77</v>
+        <v>3.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Viking</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
       <c r="J164" t="n">
-        <v>4.02</v>
+        <v>2.42</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.25</v>
+        <v>3.68</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.99</v>
+        <v>3.64</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.9</v>
+        <v>2.91</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-viking/fuRDyotD/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stromsgodset/pKW2b8mQ/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>2</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Stromsgodset</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.42</v>
+        <v>4.02</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.68</v>
+        <v>4.25</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.64</v>
+        <v>3.99</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.91</v>
+        <v>1.9</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stromsgodset/pKW2b8mQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-viking/fuRDyotD/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I167" t="n">
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>3.78</v>
+        <v>3.83</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>3.94</v>
+        <v>4.31</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.87</v>
+        <v>4.1</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.9</v>
+        <v>4.48</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>17/09/2023 16:59</t>
+          <t>17/09/2023 16:54</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:51</t>
+          <t>17/09/2023 16:45</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>4.26</v>
+        <v>4</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.56</v>
+        <v>4.2</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>5.48</v>
+        <v>3.32</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>6.89</v>
+        <v>3.63</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 16:57</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>4.31</v>
+        <v>3.94</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4.1</v>
+        <v>3.87</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4.48</v>
+        <v>3.9</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>17/09/2023 16:54</t>
+          <t>17/09/2023 16:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-bodo-glimt/6TXbalYJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-brann/44DZhnBm/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:45</t>
+          <t>17/09/2023 16:51</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4.2</v>
+        <v>4.56</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.32</v>
+        <v>5.48</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.63</v>
+        <v>6.89</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>17/09/2023 16:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-lillestrom/QDEVgSes/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-ham-kam/bRCwh6Qg/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.92</v>
+        <v>4.42</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.02</v>
+        <v>4.8</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:26</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.76</v>
+        <v>4.21</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.63</v>
+        <v>4.45</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:31</t>
+          <t>24/09/2023 16:34</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.96</v>
+        <v>1.73</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.88</v>
+        <v>1.64</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I175" t="n">
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>4.42</v>
+        <v>1.92</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>4.8</v>
+        <v>2.02</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:26</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.21</v>
+        <v>3.76</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.45</v>
+        <v>3.63</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:34</t>
+          <t>24/09/2023 16:31</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>1.73</v>
+        <v>3.96</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.64</v>
+        <v>3.88</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-molde/fHKAjE6n/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-haugesund/0fL6ifit/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>3.11</v>
+        <v>1.34</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.62</v>
+        <v>1.26</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.93</v>
+        <v>6.05</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.41</v>
+        <v>6.76</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.16</v>
+        <v>7.63</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.9</v>
+        <v>10.37</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.26</v>
+        <v>3.62</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>6.05</v>
+        <v>3.93</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>6.76</v>
+        <v>4.41</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.63</v>
+        <v>2.16</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>10.37</v>
+        <v>1.9</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>3.04</v>
+        <v>2.29</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,22 +17693,22 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>2.22</v>
+        <v>1.37</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.13</v>
+        <v>1.29</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
@@ -17716,40 +17716,40 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.83</v>
+        <v>5.21</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.94</v>
+        <v>5.99</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.11</v>
+        <v>7.99</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.28</v>
+        <v>10.82</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.75</v>
+        <v>4.36</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.9</v>
+        <v>4.76</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>3.31</v>
+        <v>4.39</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3.57</v>
+        <v>5.12</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17869,46 +17869,46 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.74</v>
+        <v>2.31</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>4.36</v>
+        <v>3.6</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4.76</v>
+        <v>3.42</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -17916,15 +17916,15 @@
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.39</v>
+        <v>3.04</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>5.12</v>
+        <v>2.98</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,63 +17969,63 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J191" t="n">
-        <v>3.21</v>
+        <v>2.22</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.26</v>
+        <v>2.13</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
           <t>08/10/2023 16:51</t>
         </is>
       </c>
-      <c r="N191" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P191" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:51</t>
-        </is>
-      </c>
-      <c r="R191" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T191" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="U191" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:51</t>
-        </is>
-      </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
         <v>1</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Aalesund</t>
-        </is>
-      </c>
-      <c r="I192" t="n">
-        <v>2</v>
-      </c>
       <c r="J192" t="n">
-        <v>1.37</v>
+        <v>2.15</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.29</v>
+        <v>2.03</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,15 +18084,15 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>5.21</v>
+        <v>3.75</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -18100,24 +18100,24 @@
         </is>
       </c>
       <c r="R192" t="n">
-        <v>7.99</v>
+        <v>3.31</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>10.82</v>
+        <v>3.57</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,14 +18521,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.97</v>
+        <v>3.58</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.63</v>
+        <v>4.25</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.56</v>
+        <v>4.21</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:54</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.42</v>
+        <v>1.82</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>4.14</v>
+        <v>1.95</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.01</v>
+        <v>3.74</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.88</v>
+        <v>3.52</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>4.27</v>
+        <v>3.51</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:56</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.74</v>
+        <v>4.01</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,15 +18736,15 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="R199" t="n">
-        <v>3.51</v>
+        <v>4.27</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.29</v>
+        <v>3.75</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:56</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stabaek/KxVUssKq/</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18789,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -18797,14 +18797,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>3.58</v>
+        <v>1.97</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>4.25</v>
+        <v>3.63</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -18828,32 +18828,32 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>4.21</v>
+        <v>3.56</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
+          <t>22/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
           <t>22/10/2023 16:53</t>
         </is>
       </c>
-      <c r="R200" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T200" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U200" t="inlineStr">
-        <is>
-          <t>22/10/2023 16:53</t>
-        </is>
-      </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-odds-bk/EaUYt1Zk/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.86</v>
+        <v>3.74</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.29</v>
+        <v>3.01</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.81</v>
+        <v>4.14</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:53</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>4.2</v>
+        <v>1.88</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>3.34</v>
+        <v>2.34</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-viking/S2f8e0lq/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>5.26</v>
+        <v>1.56</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
+          <t>29/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
           <t>29/10/2023 16:58</t>
         </is>
       </c>
-      <c r="N204" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:44</t>
-        </is>
-      </c>
-      <c r="P204" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q204" t="inlineStr">
+      <c r="R204" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="U204" t="inlineStr">
         <is>
           <t>29/10/2023 16:58</t>
         </is>
       </c>
-      <c r="R204" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:44</t>
-        </is>
-      </c>
-      <c r="T204" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U204" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-stabaek/AN7t0ttS/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,14 +19257,14 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.56</v>
+        <v>2.29</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>4.88</v>
+        <v>3.81</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>4.8</v>
+        <v>3.43</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>6.08</v>
+        <v>4.2</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>5.49</v>
+        <v>3.34</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-stabaek/AN7t0ttS/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
         </is>
       </c>
     </row>
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -19349,22 +19349,22 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>3.01</v>
+        <v>5.26</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -19372,31 +19372,31 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>4.14</v>
+        <v>4.34</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.74</v>
+        <v>4.54</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:53</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-viking/S2f8e0lq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
         </is>
       </c>
     </row>
@@ -20418,6 +20418,98 @@
       <c r="V217" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sandefjord/OUmHgvJe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-brann/dr8f7cme/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V218"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.61</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.12</v>
+        <v>2.15</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.54</v>
+        <v>3.36</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:47</t>
+          <t>16/04/2023 16:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>3.46</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>3.62</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.69</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4.62</v>
+        <v>3.12</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.97</v>
+        <v>3.54</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,32 +1440,32 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.37</v>
+        <v>3.36</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>16/04/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:33</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>16/04/2023 16:54</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:33</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>16/04/2023 16:54</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>4.62</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:44</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5.03</v>
+        <v>4.37</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.29</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>7.07</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:44</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.94</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.37</v>
+        <v>5.03</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.49</v>
+        <v>4.29</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.95</v>
+        <v>7.07</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>2.09</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.15</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6.18</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>9.33</v>
+        <v>3.49</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>9.42</v>
+        <v>3.95</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>6.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>6.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:55</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.46</v>
+        <v>9.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.62</v>
+        <v>9.42</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
         </is>
       </c>
     </row>
@@ -2413,46 +2413,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.32</v>
+        <v>2.13</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.99</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:28</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>6.09</v>
+        <v>3.51</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>5.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>8.9</v>
+        <v>3.55</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>8.07</v>
+        <v>4.2</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.99</v>
+        <v>2.47</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.51</v>
+        <v>3.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.46</v>
+        <v>3.28</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.2</v>
+        <v>3.16</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:25</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.47</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.65</v>
+        <v>6.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.28</v>
+        <v>5.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:52</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.45</v>
+        <v>8.9</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>8.07</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.32</v>
+        <v>2.39</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.43</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>5.78</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8.73</v>
+        <v>2.95</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>7.28</v>
+        <v>2.72</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.39</v>
+        <v>1.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.67</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>5.78</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>5.08</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.95</v>
+        <v>8.73</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.72</v>
+        <v>7.28</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.47</v>
+        <v>4.08</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.02</v>
+        <v>4.87</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.68</v>
+        <v>2.47</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:54</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.07</v>
+        <v>3.6</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.87</v>
+        <v>3.28</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.3</v>
+        <v>3.41</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:54</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.04</v>
+        <v>3.47</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.28</v>
+        <v>3.02</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -3517,46 +3517,46 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.23</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 17:55</t>
+          <t>03/05/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>6.49</v>
+        <v>3.63</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.92</v>
+        <v>3.34</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>11.74</v>
+        <v>2.54</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>13.9</v>
+        <v>2.38</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>1.19</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>03/05/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30/04/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>30/04/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="R35" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>03/05/2023 17:59</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
         </is>
       </c>
     </row>
@@ -3701,26 +3701,26 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>8.050000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>6.53</v>
+        <v>5.92</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>13.69</v>
+        <v>11.74</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>11.2</v>
+        <v>13.9</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.07</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>07/05/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>07/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N38" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>07/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R38" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T38" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>4.39</v>
+        <v>1.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.25</v>
+        <v>2.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>07/05/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="R39" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>03/05/2023 18:12</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q39" t="inlineStr">
+      <c r="T39" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:58</t>
-        </is>
-      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>07/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>03/05/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>07/05/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>1.81</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>03/05/2023 18:12</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:55</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q41" t="inlineStr">
+      <c r="T41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>07/05/2023 16:58</t>
         </is>
       </c>
-      <c r="R41" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>03/05/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>07/05/2023 16:58</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-odds-bk/QRuwa5Kf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-molde/4CiU0Rkr/</t>
         </is>
       </c>
     </row>
@@ -4253,46 +4253,46 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>2.07</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:57</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.21</v>
+        <v>3.44</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.05</v>
+        <v>3.37</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.33</v>
+        <v>4.02</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stromsgodset/vVqsbPZ0/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Viking</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.58</v>
+        <v>3.71</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.77</v>
+        <v>3.99</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
         </is>
       </c>
     </row>
@@ -4805,46 +4805,46 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.28</v>
+        <v>3.58</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>3.8</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>13/05/2023 16:37</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>6.04</v>
+        <v>3.74</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>6.13</v>
+        <v>3.77</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,24 +4852,24 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>10.34</v>
+        <v>2.03</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>11.56</v>
+        <v>2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-viking/vV5CD4Zm/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.32</v>
+        <v>1.28</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.01</v>
+        <v>1.27</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:37</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.28</v>
+        <v>6.04</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.36</v>
+        <v>6.13</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.3</v>
+        <v>10.34</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.25</v>
+        <v>11.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stromsgodset/d6G7EpKs/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:17</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>4.79</v>
+        <v>3.28</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>5.64</v>
+        <v>3.36</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>13/05/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>07/05/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>07/05/2023 19:43</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>3.71</v>
+        <v>1.47</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.88</v>
+        <v>1.34</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:17</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.88</v>
+        <v>4.79</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.99</v>
+        <v>5.64</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>6.53</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.92</v>
+        <v>10.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.27</v>
+        <v>4.07</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:46</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.76</v>
+        <v>4.53</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.88</v>
+        <v>3.21</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.74</v>
+        <v>5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.64</v>
+        <v>5.3</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.31</v>
+        <v>3.82</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.61</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.3</v>
+        <v>1.72</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:57</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -5449,30 +5449,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>4.33</v>
+        <v>1.36</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.67</v>
+        <v>1.32</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,15 +5480,15 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.06</v>
+        <v>5.07</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.04</v>
+        <v>5.53</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,24 +5496,24 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.77</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.65</v>
+        <v>10.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/05/2023 17:53</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,22 +5549,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.09</v>
+        <v>4.33</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.27</v>
+        <v>6.12</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.29</v>
+        <v>5.65</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.33</v>
+        <v>4.13</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.45</v>
+        <v>4.31</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>6.12</v>
+        <v>4.61</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.65</v>
+        <v>5.3</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.76</v>
+        <v>4.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.23</v>
+        <v>5.67</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>4.04</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:46</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.53</v>
+        <v>1.77</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.21</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
         </is>
       </c>
     </row>
@@ -5817,30 +5817,30 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,15 +5848,15 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>5.07</v>
+        <v>4.27</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5.53</v>
+        <v>4.07</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5864,15 +5864,15 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>9.029999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>10.58</v>
+        <v>4.88</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5.3</v>
+        <v>1.82</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.82</v>
+        <v>4.03</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.67</v>
+        <v>4.27</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.72</v>
+        <v>4.29</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>5.59</v>
+        <v>4.73</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>5.32</v>
+        <v>4.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>7.05</v>
+        <v>6.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.19</v>
+        <v>6.32</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.73</v>
+        <v>5.59</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.49</v>
+        <v>5.32</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.85</v>
+        <v>7.05</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.32</v>
+        <v>6.19</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-rosenborg/Q7qaNu3C/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.21</v>
+        <v>2.24</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.2</v>
+        <v>2.54</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>7.45</v>
+        <v>3.36</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>7.95</v>
+        <v>3.17</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>11.51</v>
+        <v>3.39</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>13.49</v>
+        <v>3.15</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Tromso</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,11 +6300,11 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.54</v>
+        <v>2.77</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:53</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:56</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.39</v>
+        <v>2.81</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:54</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.22</v>
+        <v>3.84</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.38</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>5.63</v>
+        <v>4.05</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.81</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:53</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.36</v>
+        <v>4.22</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.3</v>
+        <v>4.38</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:56</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.81</v>
+        <v>5.63</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.76</v>
+        <v>5.81</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.87</v>
+        <v>1.21</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>29/05/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/05/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/05/2023 14:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U67" t="inlineStr">
         <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/05/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>29/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>25/06/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:58</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.86</v>
+        <v>7.74</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.78</v>
+        <v>7.33</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.25</v>
+        <v>13.59</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.23</v>
+        <v>12.45</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.18</v>
+        <v>2.11</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.74</v>
+        <v>3.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>7.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>13.59</v>
+        <v>3.25</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>12.45</v>
+        <v>3.23</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,48 +8600,48 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>25/06/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O89" t="inlineStr">
+      <c r="R89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
         <is>
           <t>16/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P89" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:53</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>3</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T89" t="n">
-        <v>2.96</v>
+        <v>3.37</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.94</v>
+        <v>4.25</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.75</v>
+        <v>3.39</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>4.85</v>
+        <v>2.68</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>6.03</v>
+        <v>2.75</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.42</v>
+        <v>3.35</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.58</v>
+        <v>3.33</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.66</v>
+        <v>2.77</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.55</v>
+        <v>2.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.81</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.39</v>
+        <v>2.36</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.76</v>
+        <v>3.54</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.06</v>
+        <v>3.78</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.05</v>
+        <v>2.94</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>09/07/2023 16:56</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.6</v>
+        <v>4.85</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.91</v>
+        <v>6.03</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:57</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.32</v>
+        <v>4.42</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.71</v>
+        <v>4.58</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.25</v>
+        <v>1.55</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.99</v>
+        <v>1.22</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.94</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:58</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.45</v>
+        <v>7.53</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.58</v>
+        <v>7.99</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.41</v>
+        <v>12.15</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.46</v>
+        <v>12.64</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>2.99</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:32</t>
+          <t>16/07/2023 16:58</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>4.71</v>
+        <v>3.45</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>5.64</v>
+        <v>3.58</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:48</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>5.56</v>
+        <v>2.41</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>7.92</v>
+        <v>2.46</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:32</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.92</v>
+        <v>4.71</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.6</v>
+        <v>5.64</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:48</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.2</v>
+        <v>5.56</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.43</v>
+        <v>7.92</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.27</v>
+        <v>3.92</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.71</v>
+        <v>3.6</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>8.119999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>8.32</v>
+        <v>3.43</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>7.53</v>
+        <v>5.27</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>7.99</v>
+        <v>5.71</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>12.15</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>12.64</v>
+        <v>8.32</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.41</v>
+        <v>3.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:35</t>
+          <t>23/07/2023 16:52</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.12</v>
+        <v>2.33</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>16/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>23/07/2023 16:35</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>16/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>23/07/2023 16:38</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>3.45</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>19/07/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>23/07/2023 16:40</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>19/07/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>23/07/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R118" t="n">
-        <v>2.14</v>
-      </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.1</v>
+        <v>3.12</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:52</t>
+          <t>23/07/2023 16:40</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.54</v>
+        <v>3.77</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:58</t>
+          <t>30/07/2023 16:57</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>4.67</v>
+        <v>5.15</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4.36</v>
+        <v>5.47</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:58</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.46</v>
+        <v>6.57</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.88</v>
+        <v>7.23</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>30/07/2023 16:58</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-viking/bV2k940h/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-haugesund/dOHf62pB/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>2.43</v>
+        <v>1.68</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.31</v>
+        <v>1.7</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.62</v>
+        <v>4.15</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.72</v>
+        <v>4.04</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:52</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.85</v>
+        <v>4.79</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>24/07/2023 10:41</t>
+          <t>23/07/2023 19:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.07</v>
+        <v>5.08</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>30/07/2023 16:56</t>
+          <t>30/07/2023 16:59</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-stromsgodset/j5asBQVu/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-odds-bk/IXIj7rV4/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,63 +12173,63 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.15</v>
+        <v>4.85</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.04</v>
+        <v>4.82</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:56</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.79</v>
+        <v>6.91</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>23/07/2023 19:42</t>
+          <t>23/07/2023 17:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.08</v>
+        <v>6.34</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-odds-bk/IXIj7rV4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-ham-kam/xM1g8OFb/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
         <v>2</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
       <c r="J129" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>30/07/2023 16:57</t>
+          <t>30/07/2023 16:58</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>5.15</v>
+        <v>4.67</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>5.47</v>
+        <v>4.36</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:58</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>6.57</v>
+        <v>4.46</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.23</v>
+        <v>3.88</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>30/07/2023 16:59</t>
+          <t>30/07/2023 16:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-haugesund/dOHf62pB/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-viking/bV2k940h/</t>
         </is>
       </c>
     </row>
@@ -12349,30 +12349,30 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.46</v>
+        <v>2.43</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12380,40 +12380,40 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.85</v>
+        <v>3.62</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>23/07/2023 17:13</t>
+          <t>24/07/2023 10:41</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.82</v>
+        <v>3.72</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
+          <t>30/07/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>24/07/2023 10:41</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
           <t>30/07/2023 16:56</t>
         </is>
       </c>
-      <c r="R130" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>23/07/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T130" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>30/07/2023 16:57</t>
-        </is>
-      </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-ham-kam/xM1g8OFb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-stromsgodset/j5asBQVu/</t>
         </is>
       </c>
     </row>
@@ -12625,30 +12625,30 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2.65</v>
+        <v>4.04</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.58</v>
+        <v>3.73</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,40 +12656,40 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.39</v>
+        <v>4.1</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.31</v>
+        <v>4.05</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>06/08/2023 16:52</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.78</v>
+        <v>1.82</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>30/07/2023 19:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.97</v>
+        <v>1.94</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>06/08/2023 16:55</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-lillestrom/4lsYJLEA/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-brann/nDA730UT/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>3.8</v>
+        <v>2.86</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>4.03</v>
+        <v>2.55</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.16</v>
+        <v>3.45</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,32 +12756,32 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.23</v>
+        <v>3.44</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
+          <t>06/08/2023 16:35</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
           <t>06/08/2023 16:58</t>
         </is>
       </c>
-      <c r="R134" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T134" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>06/08/2023 16:58</t>
-        </is>
-      </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-rosenborg/lMdZbKxo/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.86</v>
+        <v>2.65</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>06/08/2023 16:35</t>
+          <t>06/08/2023 16:52</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 19:42</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:55</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-rosenborg/lMdZbKxo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-lillestrom/4lsYJLEA/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>4.04</v>
+        <v>3.8</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3.73</v>
+        <v>4.03</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.1</v>
+        <v>4.16</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.05</v>
+        <v>4.23</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-brann/nDA730UT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
         </is>
       </c>
     </row>
@@ -13361,46 +13361,46 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>13/08/2023 16:48</t>
+          <t>13/08/2023 16:55</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.28</v>
+        <v>3.66</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -13408,15 +13408,15 @@
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>06/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-viking/dnMCCw7p/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-ham-kam/0GzsIaqN/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>06/08/2023 19:42</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.17</v>
+        <v>2.24</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
+          <t>13/08/2023 16:48</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
           <t>13/08/2023 16:55</t>
         </is>
       </c>
-      <c r="N142" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P142" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Q142" t="inlineStr">
+      <c r="R142" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>06/08/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U142" t="inlineStr">
         <is>
           <t>13/08/2023 16:55</t>
         </is>
       </c>
-      <c r="R142" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>06/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T142" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:55</t>
-        </is>
-      </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-ham-kam/0GzsIaqN/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-viking/dnMCCw7p/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="n">
-        <v>1.56</v>
+        <v>5.3</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.46</v>
+        <v>6.3</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:34</t>
+          <t>20/08/2023 16:50</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4.41</v>
+        <v>4.79</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4.65</v>
+        <v>4.98</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:50</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>5.94</v>
+        <v>1.55</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>7.11</v>
+        <v>1.49</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:47</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-bodo-glimt/CzYnEjrk/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>5.3</v>
+        <v>2.73</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>6.3</v>
+        <v>2.67</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
+          <t>20/08/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
           <t>20/08/2023 16:50</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:50</t>
-        </is>
-      </c>
-      <c r="R148" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T148" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:47</t>
-        </is>
-      </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-bodo-glimt/CzYnEjrk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-rosenborg/IDYrFWSr/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2.73</v>
+        <v>1.19</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.67</v>
+        <v>1.28</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.57</v>
+        <v>7.98</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.63</v>
+        <v>6.67</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.55</v>
+        <v>11.84</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.63</v>
+        <v>9.35</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>20/08/2023 16:50</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-rosenborg/IDYrFWSr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-aalesund/6y6FWbbG/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:34</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>7.98</v>
+        <v>4.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>6.67</v>
+        <v>4.65</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>11.84</v>
+        <v>5.94</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>9.35</v>
+        <v>7.11</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-aalesund/6y6FWbbG/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>3.21</v>
+        <v>1.37</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.53</v>
+        <v>5.21</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.56</v>
+        <v>5.99</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.29</v>
+        <v>7.99</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>3.27</v>
+        <v>10.82</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1.37</v>
+        <v>3.21</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>5.21</v>
+        <v>3.53</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>5.99</v>
+        <v>3.56</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>7.99</v>
+        <v>2.29</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>10.82</v>
+        <v>3.27</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190" t="n">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.51</v>
+        <v>2.13</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.42</v>
+        <v>3.94</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.83</v>
+        <v>3.6</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.94</v>
+        <v>3.42</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.28</v>
+        <v>2.98</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1.86</v>
+        <v>4.5</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.29</v>
+        <v>5.26</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.81</v>
+        <v>4.34</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.43</v>
+        <v>4.54</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>4.2</v>
+        <v>1.69</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.34</v>
+        <v>1.61</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>4.5</v>
+        <v>1.86</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>5.26</v>
+        <v>2.29</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>4.34</v>
+        <v>3.81</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4.54</v>
+        <v>3.43</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>1.69</v>
+        <v>4.2</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1.61</v>
+        <v>3.34</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
         </is>
       </c>
     </row>
@@ -20510,6 +20510,650 @@
       <c r="V218" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-brann/dr8f7cme/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>4</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-ham-kam/p4lkTvAE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>3</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-rosenborg/6DkoUKf8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>08/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>08/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>08/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stabaek/xC6dRIvR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-aalesund/ru4j8wYl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>4</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-tromso/Ue625yI7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sarpsborg-08/vRmgSbPK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45242.80208333334</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>4</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:11</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:11</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-lillestrom/j57b6H21/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>3.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,48 +1332,48 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.15</v>
+        <v>3.12</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="N10" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:33</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
         <v>3.36</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>16/04/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>09/04/2023 08:33</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>16/04/2023 16:55</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:33</t>
-        </is>
-      </c>
       <c r="T10" t="n">
-        <v>3.62</v>
+        <v>2.44</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.61</v>
+        <v>4.69</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.12</v>
+        <v>4.62</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.54</v>
+        <v>3.97</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.36</v>
+        <v>4.37</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>16/04/2023 16:47</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>4.69</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4.62</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:44</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.37</v>
+        <v>5.03</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.74</v>
+        <v>4.29</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>7.07</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>2.09</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:44</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.94</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5.03</v>
+        <v>3.37</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.29</v>
+        <v>3.49</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>7.07</v>
+        <v>3.95</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.09</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>6.15</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>6.18</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.49</v>
+        <v>9.33</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.95</v>
+        <v>9.42</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.29</v>
+        <v>2.21</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>2.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.15</v>
+        <v>3.36</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>6.18</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:55</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>9.33</v>
+        <v>3.46</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>9.42</v>
+        <v>3.62</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
         </is>
       </c>
     </row>
@@ -2229,30 +2229,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/04/2023 18:42</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.24</v>
+        <v>2.47</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,40 +2260,40 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.71</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/04/2023 18:42</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.56</v>
+        <v>3.28</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>23/04/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>16/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>23/04/2023 16:59</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>19/04/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>23/04/2023 16:59</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stromsgodset/AyiMXSLe/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,40 +2352,40 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.1</v>
+        <v>3.51</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.18</v>
+        <v>3.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.41</v>
+        <v>3.55</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>16/04/2023 19:42</t>
+          <t>17/04/2023 06:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/04/2023 16:56</t>
+          <t>23/04/2023 16:25</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
         </is>
       </c>
     </row>
@@ -2413,30 +2413,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.13</v>
+        <v>1.78</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,40 +2444,40 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.51</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.46</v>
+        <v>4.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.55</v>
+        <v>4.41</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>17/04/2023 06:12</t>
+          <t>16/04/2023 19:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/04/2023 16:25</t>
+          <t>23/04/2023 16:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-haugesund/4zYCfjT8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-odds-bk/QqZ8eWD2/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.47</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:28</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.65</v>
+        <v>6.09</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.28</v>
+        <v>5.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:52</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.45</v>
+        <v>8.9</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.16</v>
+        <v>8.07</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.32</v>
+        <v>2.07</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>2.24</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:28</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6.09</v>
+        <v>3.71</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.18</v>
+        <v>3.56</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>8.9</v>
+        <v>3.47</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>8.07</v>
+        <v>3.33</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stromsgodset/AyiMXSLe/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.72</v>
+        <v>3.64</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.32</v>
+        <v>2.22</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>2.47</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:54</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.78</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>8.73</v>
+        <v>3.28</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7.28</v>
+        <v>3.41</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.07</v>
+        <v>5.78</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.08</v>
+        <v>5.08</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.87</v>
+        <v>8.73</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.3</v>
+        <v>7.28</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.22</v>
+        <v>2.39</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:54</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.04</v>
+        <v>3.5</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.41</v>
+        <v>2.72</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.47</v>
+        <v>4.08</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.02</v>
+        <v>4.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>1.23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01/05/2023 04:41</t>
+          <t>30/04/2023 17:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>03/05/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>30/04/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>03/05/2023 17:59</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>01/05/2023 04:41</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>03/05/2023 17:59</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Odd</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.19</v>
+        <v>2.75</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 17:55</t>
+          <t>03/05/2023 17:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>8.050000000000001</v>
+        <v>3.63</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6.53</v>
+        <v>3.34</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>13.69</v>
+        <v>2.54</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 19:42</t>
+          <t>01/05/2023 04:41</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>11.2</v>
+        <v>2.38</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-brann/AkQGBcMj/</t>
         </is>
       </c>
     </row>
@@ -3701,26 +3701,26 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3732,15 +3732,15 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6.49</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.92</v>
+        <v>6.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,15 +3748,15 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>11.74</v>
+        <v>13.69</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 17:12</t>
+          <t>30/04/2023 19:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>13.9</v>
+        <v>11.2</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-aalesund/xxjHN3Fo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-odds-bk/v7ZpHJbT/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.69</v>
+        <v>3.49</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.87</v>
+        <v>4.02</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:41</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.07</v>
+        <v>2.54</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.49</v>
+        <v>2.69</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.02</v>
+        <v>2.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:41</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.23</v>
+        <v>1.32</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.07</v>
+        <v>5.07</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>5.53</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:46</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.53</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.21</v>
+        <v>10.58</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/05/2023 17:56</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>1.76</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5.3</v>
+        <v>2.23</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.08</v>
+        <v>4.07</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:46</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.67</v>
+        <v>4.53</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.72</v>
+        <v>3.21</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sarpsborg-08/zHkFXPQJ/</t>
         </is>
       </c>
     </row>
@@ -5449,30 +5449,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,15 +5480,15 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>5.07</v>
+        <v>4.33</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>5.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,15 +5496,15 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>9.029999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>10.58</v>
+        <v>5.65</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,22 +5549,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.33</v>
+        <v>4.09</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.45</v>
+        <v>4.03</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>6.12</v>
+        <v>4.27</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.65</v>
+        <v>4.29</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.74</v>
+        <v>5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.64</v>
+        <v>5.3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.31</v>
+        <v>3.82</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.61</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.3</v>
+        <v>1.72</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:57</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4.33</v>
+        <v>1.67</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5.67</v>
+        <v>1.72</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,15 +5756,15 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.06</v>
+        <v>4.27</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,24 +5772,24 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.77</v>
+        <v>4.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.65</v>
+        <v>4.88</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:53</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.27</v>
+        <v>4.13</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.07</v>
+        <v>4.31</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.76</v>
+        <v>4.61</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.88</v>
+        <v>5.3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.82</v>
+        <v>5.67</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.27</v>
+        <v>1.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.29</v>
+        <v>1.65</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:53</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.38</v>
+        <v>2.24</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.47</v>
+        <v>2.54</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>5.59</v>
+        <v>3.36</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>5.32</v>
+        <v>3.17</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>7.05</v>
+        <v>3.39</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.19</v>
+        <v>3.15</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.24</v>
+        <v>1.21</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.54</v>
+        <v>1.2</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:54</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.36</v>
+        <v>7.45</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.17</v>
+        <v>7.95</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.39</v>
+        <v>11.51</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.15</v>
+        <v>13.49</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.6</v>
+        <v>1.38</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.77</v>
+        <v>1.47</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:53</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.36</v>
+        <v>5.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.3</v>
+        <v>5.32</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:56</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.81</v>
+        <v>7.05</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.76</v>
+        <v>6.19</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.84</v>
+        <v>4.22</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.64</v>
+        <v>4.38</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.05</v>
+        <v>5.63</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.74</v>
+        <v>5.81</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.59</v>
+        <v>2.6</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:53</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>4.22</v>
+        <v>3.36</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.38</v>
+        <v>3.3</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:56</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>5.63</v>
+        <v>2.81</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>5.81</v>
+        <v>2.76</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:54</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-valerenga/QJ7MRffb/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>7.45</v>
+        <v>3.84</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>7.95</v>
+        <v>3.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="R67" t="n">
-        <v>11.51</v>
+        <v>4.05</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>13.49</v>
+        <v>3.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>25/06/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="R86" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>16/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:53</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>3</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.96</v>
+        <v>3.37</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.18</v>
+        <v>2.11</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>7.74</v>
+        <v>3.86</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>7.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>13.59</v>
+        <v>3.25</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>12.45</v>
+        <v>3.23</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.86</v>
+        <v>7.74</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.78</v>
+        <v>7.33</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.25</v>
+        <v>13.59</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.23</v>
+        <v>12.45</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,32 +8616,32 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
+          <t>25/06/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="R89" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T89" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:58</t>
-        </is>
-      </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.48</v>
+        <v>3.17</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.36</v>
+        <v>3.27</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.92</v>
+        <v>3.34</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>5.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>8.07</v>
+        <v>2.27</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.58</v>
+        <v>2.39</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.32</v>
+        <v>3.44</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.04</v>
+        <v>3.22</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.9</v>
+        <v>3.04</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.61</v>
+        <v>3.36</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.39</v>
+        <v>1.25</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.38</v>
+        <v>1.34</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:45</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.44</v>
+        <v>6.6</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.22</v>
+        <v>6.05</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.04</v>
+        <v>11.51</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.36</v>
+        <v>8.33</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:54</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:45</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>6.6</v>
+        <v>4.92</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>6.05</v>
+        <v>5.85</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:51</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>11.51</v>
+        <v>6.3</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>8.33</v>
+        <v>8.07</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>02/07/2023 16:54</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.17</v>
+        <v>1.58</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.27</v>
+        <v>1.65</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.34</v>
+        <v>4.32</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.57</v>
+        <v>4.04</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.39</v>
+        <v>5.9</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.27</v>
+        <v>5.61</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>2</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>7.53</v>
+        <v>5.27</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>7.99</v>
+        <v>5.71</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>12.15</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>12.64</v>
+        <v>8.32</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:44</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>2.99</v>
+        <v>1.22</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.94</v>
+        <v>1.2</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:58</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.45</v>
+        <v>7.53</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.58</v>
+        <v>7.99</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.41</v>
+        <v>12.15</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.46</v>
+        <v>12.64</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.37</v>
+        <v>2.18</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:32</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.71</v>
+        <v>3.92</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>5.64</v>
+        <v>3.6</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:48</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.56</v>
+        <v>5.2</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>7.92</v>
+        <v>3.43</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>1.68</v>
+        <v>2.36</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.2</v>
+        <v>3.11</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.43</v>
+        <v>3.3</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.38</v>
+        <v>2.99</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.36</v>
+        <v>2.94</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.27</v>
+        <v>3.45</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>5.71</v>
+        <v>3.58</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>8.119999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>8.32</v>
+        <v>2.46</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:44</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-sandefjord/dl1ouQoC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.33</v>
+        <v>1.37</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:32</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.4</v>
+        <v>4.71</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.38</v>
+        <v>5.64</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:48</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.11</v>
+        <v>5.56</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.3</v>
+        <v>7.92</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-ham-kam/hGffw4GO/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.16</v>
+        <v>2.41</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:52</t>
+          <t>23/07/2023 16:35</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.05</v>
+        <v>3.45</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>16/07/2023 19:41</t>
+          <t>16/07/2023 17:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.33</v>
+        <v>3.12</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>23/07/2023 16:58</t>
+          <t>23/07/2023 16:38</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.22</v>
+        <v>3.45</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.41</v>
+        <v>3.53</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:35</t>
+          <t>23/07/2023 16:40</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.42</v>
+        <v>3.77</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.45</v>
+        <v>2.14</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>16/07/2023 17:12</t>
+          <t>19/07/2023 18:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.12</v>
+        <v>2.1</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>23/07/2023 16:38</t>
+          <t>23/07/2023 16:59</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stabaek/4fOCeoWh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Lillestrom</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
       <c r="J121" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>3.53</v>
+        <v>3.16</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:40</t>
+          <t>23/07/2023 16:52</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.77</v>
+        <v>3.54</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>19/07/2023 18:12</t>
+          <t>16/07/2023 19:41</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>23/07/2023 16:59</t>
+          <t>23/07/2023 16:58</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-lillestrom/bHNGf5oa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-brann/IHUSi3VH/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.7</v>
+        <v>4.03</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:53</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.46</v>
+        <v>4.16</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.18</v>
+        <v>4.23</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:53</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.59</v>
+        <v>1.86</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.91</v>
+        <v>1.83</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>06/08/2023 16:56</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stabaek/GSlLMNUi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>3.8</v>
+        <v>2.12</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>4.03</v>
+        <v>2.7</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:53</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.16</v>
+        <v>3.46</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.23</v>
+        <v>3.18</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:53</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>1.86</v>
+        <v>3.59</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.83</v>
+        <v>2.91</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:56</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-sarpsborg-08/bivQLspb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stabaek/GSlLMNUi/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.26</v>
+        <v>3.62</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>6.05</v>
+        <v>3.93</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>6.76</v>
+        <v>4.41</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>7.63</v>
+        <v>2.16</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>10.37</v>
+        <v>1.9</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>3.11</v>
+        <v>1.34</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.62</v>
+        <v>1.26</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.93</v>
+        <v>6.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.41</v>
+        <v>6.76</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.16</v>
+        <v>7.63</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.9</v>
+        <v>10.37</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.37</v>
+        <v>3.21</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>5.21</v>
+        <v>3.53</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>5.99</v>
+        <v>3.56</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>7.99</v>
+        <v>2.29</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>10.82</v>
+        <v>3.27</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>3.21</v>
+        <v>1.74</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.53</v>
+        <v>4.36</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.56</v>
+        <v>4.76</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.29</v>
+        <v>4.39</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.27</v>
+        <v>5.12</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>4.36</v>
+        <v>5.21</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,32 +17816,32 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4.76</v>
+        <v>5.99</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
+          <t>08/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
           <t>08/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R189" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T189" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>08/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>3.74</v>
+        <v>1.86</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>3.01</v>
+        <v>2.29</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>4.14</v>
+        <v>3.81</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.74</v>
+        <v>3.43</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:53</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>1.88</v>
+        <v>4.2</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>2.34</v>
+        <v>3.34</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>29/10/2023 16:58</t>
+          <t>29/10/2023 16:52</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-viking/S2f8e0lq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
         </is>
       </c>
     </row>
@@ -19157,46 +19157,46 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.56</v>
+        <v>5.26</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>4.88</v>
+        <v>4.34</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4.8</v>
+        <v>4.54</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -19204,15 +19204,15 @@
         </is>
       </c>
       <c r="R204" t="n">
-        <v>6.08</v>
+        <v>1.69</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>21/10/2023 18:44</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>5.49</v>
+        <v>1.61</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-stabaek/AN7t0ttS/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>21/10/2023 18:44</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>5.26</v>
+        <v>1.56</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
+          <t>29/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
           <t>29/10/2023 16:58</t>
         </is>
       </c>
-      <c r="N205" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:44</t>
-        </is>
-      </c>
-      <c r="P205" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q205" t="inlineStr">
+      <c r="R205" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="U205" t="inlineStr">
         <is>
           <t>29/10/2023 16:58</t>
         </is>
       </c>
-      <c r="R205" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:44</t>
-        </is>
-      </c>
-      <c r="T205" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U205" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:58</t>
-        </is>
-      </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-brann/bm4x1MQL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-stabaek/AN7t0ttS/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.86</v>
+        <v>3.74</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.29</v>
+        <v>3.01</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.81</v>
+        <v>4.14</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.43</v>
+        <v>3.74</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:53</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>4.2</v>
+        <v>1.88</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.34</v>
+        <v>2.34</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>29/10/2023 16:52</t>
+          <t>29/10/2023 16:58</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-ham-kam/GOEX12BF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-viking/S2f8e0lq/</t>
         </is>
       </c>
     </row>
@@ -19801,71 +19801,71 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J211" t="n">
-        <v>1.34</v>
+        <v>4.76</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>01/11/2023 16:42</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>1.14</v>
+        <v>5.73</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>05/11/2023 16:36</t>
+          <t>05/11/2023 16:59</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>5.76</v>
+        <v>4.57</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>01/11/2023 16:42</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>9.699999999999999</v>
+        <v>4.97</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
           <t>05/11/2023 16:56</t>
         </is>
       </c>
-      <c r="R211" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="S211" t="inlineStr">
-        <is>
-          <t>29/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T211" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="U211" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:56</t>
-        </is>
-      </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-odds-bk/2LnLhbY1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-bodo-glimt/b7SJDaAR/</t>
         </is>
       </c>
     </row>
@@ -19893,30 +19893,30 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G212" t="n">
+        <v>3</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
         <v>1</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
       <c r="J212" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
@@ -19924,15 +19924,15 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>4.64</v>
+        <v>3.87</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -19940,15 +19940,15 @@
         </is>
       </c>
       <c r="R212" t="n">
-        <v>5.76</v>
+        <v>2</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>4.29</v>
+        <v>1.97</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-haugesund/URv7G1Q8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-molde/CjUBFLuF/</t>
         </is>
       </c>
     </row>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -19993,63 +19993,63 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="n">
-        <v>3.55</v>
+        <v>1.75</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.87</v>
+        <v>4.33</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>2</v>
+        <v>4.34</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>1.97</v>
+        <v>3.72</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-molde/CjUBFLuF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-valerenga/jsTFEueL/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:36</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>4.33</v>
+        <v>5.76</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>4.22</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:56</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>4.34</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>3.72</v>
+        <v>18.39</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:56</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-valerenga/jsTFEueL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-odds-bk/2LnLhbY1/</t>
         </is>
       </c>
     </row>
@@ -20169,30 +20169,30 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Bodo/Glimt</t>
-        </is>
-      </c>
-      <c r="I215" t="n">
-        <v>4</v>
-      </c>
       <c r="J215" t="n">
-        <v>4.76</v>
+        <v>1.53</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>01/11/2023 16:42</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>5.73</v>
+        <v>1.87</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -20200,15 +20200,15 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>01/11/2023 16:42</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>4.97</v>
+        <v>3.81</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -20216,24 +20216,24 @@
         </is>
       </c>
       <c r="R215" t="n">
-        <v>1.63</v>
+        <v>5.76</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>01/11/2023 16:42</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="T215" t="n">
-        <v>1.52</v>
+        <v>4.29</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>05/11/2023 16:56</t>
+          <t>05/11/2023 16:59</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-bodo-glimt/b7SJDaAR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-haugesund/URv7G1Q8/</t>
         </is>
       </c>
     </row>
@@ -20629,22 +20629,22 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>2.74</v>
+        <v>1.1</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -20652,15 +20652,15 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.65</v>
+        <v>12.84</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -20668,15 +20668,15 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.89</v>
+        <v>12.16</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>2.5</v>
+        <v>17.21</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="T220" t="n">
-        <v>3.23</v>
+        <v>17.95</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-rosenborg/6DkoUKf8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-aalesund/ru4j8wYl/</t>
         </is>
       </c>
     </row>
@@ -20721,71 +20721,71 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.87</v>
+        <v>4</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>12/11/2023 16:54</t>
+          <t>12/11/2023 16:57</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>12/11/2023 16:54</t>
+          <t>12/11/2023 16:59</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>3.93</v>
+        <v>2.37</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T221" t="n">
-        <v>4.19</v>
+        <v>1.92</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:57</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stabaek/xC6dRIvR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-tromso/Ue625yI7/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="n">
-        <v>1.1</v>
+        <v>2.74</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1.09</v>
+        <v>2.14</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>12.84</v>
+        <v>3.65</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>12.16</v>
+        <v>3.89</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>17.21</v>
+        <v>2.5</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>17.95</v>
+        <v>3.23</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-aalesund/ru4j8wYl/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-rosenborg/6DkoUKf8/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>4</v>
+        <v>1.87</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:57</t>
+          <t>12/11/2023 16:54</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.34</v>
+        <v>3.91</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:59</t>
+          <t>12/11/2023 16:54</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>2.37</v>
+        <v>3.93</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>1.92</v>
+        <v>4.19</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:57</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-tromso/Ue625yI7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stabaek/xC6dRIvR/</t>
         </is>
       </c>
     </row>
@@ -21154,6 +21154,742 @@
       <c r="V225" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/norway/eliteserien/molde-lillestrom/j57b6H21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>3</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-molde/QyupIE1D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>3</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stromsgodset/CYztJfn7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>4</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-odds-bk/U9oyKzX0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>14/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>14/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>14/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sandefjord/vuTRtbvE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>4</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-bodo-glimt/MqrTLd2l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>4</v>
+      </c>
+      <c r="J231" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-viking/rgqPMxmr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-valerenga/jJnXKGHf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-haugesund/G4jePV8t/</t>
         </is>
       </c>
     </row>

--- a/2023/norway_eliteserien_2023.xlsx
+++ b/2023/norway_eliteserien_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.61</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.12</v>
+        <v>2.15</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.54</v>
+        <v>3.36</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:47</t>
+          <t>16/04/2023 16:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>3.46</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>3.62</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16/04/2023 16:54</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.69</v>
+        <v>3.61</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4.62</v>
+        <v>3.12</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.97</v>
+        <v>3.54</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,32 +1440,32 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.37</v>
+        <v>3.36</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>16/04/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>09/04/2023 08:33</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>16/04/2023 16:54</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>09/04/2023 08:33</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>16/04/2023 16:54</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-tromso/QPEqgwh4/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>4.69</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>4.62</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:44</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5.03</v>
+        <v>4.37</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.29</v>
+        <v>1.74</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>09/04/2023 08:32</t>
+          <t>09/04/2023 08:33</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>7.07</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-brann/CMAufJxb/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:44</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.94</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.37</v>
+        <v>5.03</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.49</v>
+        <v>4.29</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>09/04/2023 08:33</t>
+          <t>09/04/2023 08:32</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.95</v>
+        <v>7.07</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16/04/2023 16:52</t>
+          <t>16/04/2023 16:57</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-rosenborg/UcLzeaNi/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>2.09</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.15</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6.18</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>9.33</v>
+        <v>3.49</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>9.42</v>
+        <v>3.95</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>16/04/2023 16:35</t>
+          <t>16/04/2023 16:52</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-ham-kam/j7MWeu8o/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>6.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>6.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:55</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.46</v>
+        <v>9.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.62</v>
+        <v>9.42</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>16/04/2023 16:57</t>
+          <t>16/04/2023 16:35</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-aalesund/KnEmhc7A/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-stabaek/2iTlXeVp/</t>
         </is>
       </c>
     </row>
@@ -2229,30 +2229,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.47</v>
+        <v>2.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,31 +2260,31 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.71</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/04/2023 16:52</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>16/04/2023 17:12</t>
+          <t>19/04/2023 18:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.16</v>
+        <v>3.33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stromsgodset/AyiMXSLe/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>2.47</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:28</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.09</v>
+        <v>3.65</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>5.18</v>
+        <v>3.28</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:52</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>3.45</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>8.07</v>
+        <v>3.16</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>23/04/2023 16:58</t>
+          <t>23/04/2023 16:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-viking/Y9xHgArF/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.07</v>
+        <v>1.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/04/2023 18:42</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.24</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:28</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.71</v>
+        <v>6.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/04/2023 18:42</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.56</v>
+        <v>5.18</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.47</v>
+        <v>8.9</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/04/2023 18:42</t>
+          <t>16/04/2023 17:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.33</v>
+        <v>8.07</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/04/2023 16:59</t>
+          <t>23/04/2023 16:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-stromsgodset/AyiMXSLe/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sandefjord/OveQWny2/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.47</v>
+        <v>4.08</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.02</v>
+        <v>4.87</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>30/04/2023 16:58</t>
+          <t>30/04/2023 16:46</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:54</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.04</v>
+        <v>3.47</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.28</v>
+        <v>3.02</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>30/04/2023 16:59</t>
+          <t>30/04/2023 16:58</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-tromso/K6A4p651/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.32</v>
+        <v>2.22</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>2.47</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:17</t>
+          <t>30/04/2023 16:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.78</v>
+        <v>3.6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>8.73</v>
+        <v>3.28</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>25/04/2023 14:12</t>
+          <t>23/04/2023 17:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>7.28</v>
+        <v>3.41</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/04/2023 16:53</t>
+          <t>30/04/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-aalesund/2VFaonje/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.39</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.67</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:17</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.55</v>
+        <v>5.78</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>5.08</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.95</v>
+        <v>8.73</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/04/2023 17:12</t>
+          <t>25/04/2023 14:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.72</v>
+        <v>7.28</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/04/2023 16:52</t>
+          <t>30/04/2023 16:53</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-stabaek/OvHenSzk/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.69</v>
+        <v>2.39</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>2.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.08</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.87</v>
+        <v>2.95</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.3</v>
+        <v>2.72</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 16:46</t>
+          <t>30/04/2023 16:52</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-ham-kam/bc98qQK7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-sarpsborg-08/UHHim8Lr/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.54</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.49</v>
+        <v>2.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>03/05/2023 18:12</t>
+          <t>04/05/2023 03:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.02</v>
+        <v>2.87</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>07/05/2023 16:59</t>
+          <t>07/05/2023 16:41</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:53</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.69</v>
+        <v>3.49</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 03:42</t>
+          <t>03/05/2023 18:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.87</v>
+        <v>4.02</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>07/05/2023 16:41</t>
+          <t>07/05/2023 16:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-sarpsborg-08/r3jYao5l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-haugesund/nJk357sR/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08/05/2023 13:12</t>
+          <t>07/05/2023 19:43</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>13/05/2023 16:17</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>07/05/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>07/05/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>13/05/2023 16:57</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>08/05/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>13/05/2023 16:57</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tromso</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Brann</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.71</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.88</v>
+        <v>2.01</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.88</v>
+        <v>3.28</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.99</v>
+        <v>3.36</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:50</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>08/05/2023 19:12</t>
+          <t>07/05/2023 17:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>4.25</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>13/05/2023 16:58</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,54 +4997,54 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.36</v>
+        <v>3.69</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13/05/2023 16:50</t>
+          <t>13/05/2023 16:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.3</v>
+        <v>4.24</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>07/05/2023 17:12</t>
+          <t>08/05/2023 13:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.25</v>
+        <v>5.33</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-tromso/MDPuJQBQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-aalesund/ne9KBr40/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.47</v>
+        <v>3.71</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>3.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:17</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.79</v>
+        <v>3.88</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5.64</v>
+        <v>3.99</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.53</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>07/05/2023 19:43</t>
+          <t>08/05/2023 19:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>10.47</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13/05/2023 16:57</t>
+          <t>13/05/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-rosenborg/SjQyK6dK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-brann/IL4GCOlf/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.32</v>
+        <v>5.3</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,15 +5296,15 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.07</v>
+        <v>4.08</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -5312,15 +5312,15 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>9.029999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>14/05/2023 15:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>10.58</v>
+        <v>1.72</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
         </is>
       </c>
     </row>
@@ -5449,30 +5449,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,15 +5480,15 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.33</v>
+        <v>5.07</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.45</v>
+        <v>5.53</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,15 +5496,15 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.12</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>14/05/2023 15:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.65</v>
+        <v>10.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-stabaek/MD1X8tlJ/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,22 +5549,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,40 +5572,40 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.09</v>
+        <v>4.33</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.27</v>
+        <v>6.12</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.29</v>
+        <v>5.65</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/05/2023 17:44</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-haugesund/E7lJWqtQ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5.3</v>
+        <v>1.82</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.82</v>
+        <v>4.03</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>4.27</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.72</v>
+        <v>4.29</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:44</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-molde/8AcT9MYC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sandefjord/IygvS3ls/</t>
         </is>
       </c>
     </row>
@@ -5725,30 +5725,30 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>3</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Ham-Kam</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.67</v>
+        <v>4.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.72</v>
+        <v>5.67</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5756,15 +5756,15 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.27</v>
+        <v>4.06</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5772,24 +5772,24 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.76</v>
+        <v>1.77</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>13/05/2023 19:42</t>
+          <t>13/05/2023 17:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.88</v>
+        <v>1.65</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:53</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.13</v>
+        <v>4.27</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.31</v>
+        <v>4.07</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:54</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.61</v>
+        <v>4.76</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/05/2023 17:12</t>
+          <t>13/05/2023 19:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.3</v>
+        <v>4.88</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/05/2023 17:57</t>
+          <t>16/05/2023 17:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-ham-kam/4hejP1Ya/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Bodo/Glimt</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
       <c r="J60" t="n">
-        <v>4.33</v>
+        <v>1.74</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5.67</v>
+        <v>1.64</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.06</v>
+        <v>4.13</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.04</v>
+        <v>4.31</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:59</t>
+          <t>16/05/2023 17:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.77</v>
+        <v>4.61</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.65</v>
+        <v>5.3</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/05/2023 17:53</t>
+          <t>16/05/2023 17:57</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-bodo-glimt/dSirRN3m/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-odds-bk/jkinQsJg/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Tromso</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.36</v>
+        <v>5.59</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.17</v>
+        <v>5.32</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.39</v>
+        <v>7.05</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.15</v>
+        <v>6.19</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/05/2023 16:57</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.21</v>
+        <v>2.24</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.2</v>
+        <v>2.54</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:54</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>7.45</v>
+        <v>3.36</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>7.95</v>
+        <v>3.17</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>11.51</v>
+        <v>3.39</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>13.49</v>
+        <v>3.15</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-tromso/fsl3MaII/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>5.59</v>
+        <v>4.22</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>5.32</v>
+        <v>4.38</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>7.05</v>
+        <v>5.63</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.19</v>
+        <v>5.81</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/05/2023 16:59</t>
+          <t>29/05/2023 16:32</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-viking/nHpeOLm6/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.22</v>
+        <v>3.84</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.38</v>
+        <v>3.64</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>5.63</v>
+        <v>4.05</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.81</v>
+        <v>3.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/05/2023 16:32</t>
+          <t>29/05/2023 16:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-aalesund/Wd8ISzuh/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.87</v>
+        <v>1.21</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>29/05/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/05/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>22/05/2023 14:42</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Q67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="U67" t="inlineStr">
         <is>
           <t>29/05/2023 16:59</t>
         </is>
       </c>
-      <c r="R67" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>22/05/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>29/05/2023 16:59</t>
-        </is>
-      </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-stromsgodset/YBkFTGPo/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-sandefjord/W6BW4Xno/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.43</v>
+        <v>2.52</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,32 +8340,32 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
+          <t>25/06/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="R86" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T86" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:58</t>
-        </is>
-      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.11</v>
+        <v>1.18</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.86</v>
+        <v>7.74</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.78</v>
+        <v>7.33</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.25</v>
+        <v>13.59</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.23</v>
+        <v>12.45</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>25/06/2023 16:55</t>
+          <t>25/06/2023 16:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.18</v>
+        <v>2.11</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:58</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.74</v>
+        <v>3.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>7.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>13.59</v>
+        <v>3.25</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>12.45</v>
+        <v>3.23</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:55</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-haugesund/rqWmzv4F/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-sarpsborg-08/Q7LhZcJL/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,48 +8600,48 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>25/06/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>16/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
           <t>25/06/2023 16:59</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O89" t="inlineStr">
+      <c r="R89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
         <is>
           <t>16/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P89" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>25/06/2023 16:53</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>3</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>16/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T89" t="n">
-        <v>2.96</v>
+        <v>3.37</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>25/06/2023 16:59</t>
+          <t>25/06/2023 16:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-odds-bk/zJSux0Z2/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-stabaek/djCOTysq/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>3.17</v>
+        <v>1.48</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.27</v>
+        <v>1.36</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.34</v>
+        <v>4.92</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.57</v>
+        <v>5.85</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.39</v>
+        <v>6.3</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.27</v>
+        <v>8.07</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.39</v>
+        <v>1.58</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.44</v>
+        <v>4.32</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.22</v>
+        <v>4.04</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.04</v>
+        <v>5.9</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.36</v>
+        <v>5.61</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>02/07/2023 16:56</t>
+          <t>02/07/2023 16:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.25</v>
+        <v>2.39</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.34</v>
+        <v>2.38</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:45</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>6.6</v>
+        <v>3.44</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6.05</v>
+        <v>3.22</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:51</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>11.51</v>
+        <v>3.04</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>8.33</v>
+        <v>3.36</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>02/07/2023 16:54</t>
+          <t>02/07/2023 16:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-odds-bk/80YElwJ8/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.48</v>
+        <v>3.17</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>3.27</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.92</v>
+        <v>3.34</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.85</v>
+        <v>3.57</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="R95" t="n">
-        <v>6.3</v>
+        <v>2.39</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>8.07</v>
+        <v>2.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-sandefjord/UFMNnHmL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-rosenborg/tftTQZQ1/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Ham-Kam</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:45</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.32</v>
+        <v>6.6</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.04</v>
+        <v>6.05</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:51</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.9</v>
+        <v>11.51</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.61</v>
+        <v>8.33</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>02/07/2023 16:59</t>
+          <t>02/07/2023 16:54</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-tromso/jPNJmcYE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-ham-kam/fcUAkJ32/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.6</v>
+        <v>4.85</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.91</v>
+        <v>6.03</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:57</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.32</v>
+        <v>4.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.71</v>
+        <v>4.58</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>02/07/2023 19:41</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.25</v>
+        <v>1.55</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>09/07/2023 16:58</t>
+          <t>09/07/2023 16:36</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.81</v>
+        <v>2.6</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/07/2023 19:11</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.39</v>
+        <v>1.91</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>09/07/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>02/07/2023 17:11</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
           <t>09/07/2023 16:58</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q102" t="inlineStr">
+      <c r="R102" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>02/07/2023 17:11</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U102" t="inlineStr">
         <is>
           <t>09/07/2023 16:58</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>09/07/2023 16:56</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-valerenga/zFAQqlXt/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.75</v>
+        <v>3.39</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:58</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>09/07/2023 16:59</t>
+          <t>09/07/2023 16:56</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-sarpsborg-08/rJnc1G2E/</t>
         </is>
       </c>
     </row>
@@ -9957,30 +9957,30 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,15 +9988,15 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,15 +10004,15 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>02/07/2023 17:11</t>
+          <t>03/07/2023 19:11</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-stabaek/4Smg2dm8/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>4.85</v>
+        <v>2.16</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>6.03</v>
+        <v>2.36</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.42</v>
+        <v>3.54</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.58</v>
+        <v>3.78</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.66</v>
+        <v>3.5</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>02/07/2023 19:41</t>
+          <t>02/07/2023 17:11</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.55</v>
+        <v>2.94</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>09/07/2023 16:36</t>
+          <t>09/07/2023 16:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-bodo-glimt/lK56vge1/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-lillestrom/SA4AwDA7/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.2</v>
+        <v>2.18</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>7.53</v>
+        <v>3.92</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>7.99</v>
+        <v>3.6</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>12.15</v>
+        <v>5.2</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>12.64</v>
+        <v>3.43</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.68</v>
+        <v>2.36</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.92</v>
+        <v>3.4</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:51</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.2</v>
+        <v>3.11</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.43</v>
+        <v>3.3</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-tromso/vDjjvp1I/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.36</v>
+        <v>2.99</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.33</v>
+        <v>2.94</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:58</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:51</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.11</v>
+        <v>2.41</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.3</v>
+        <v>2.46</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>16/07/2023 16:56</t>
+          <t>16/07/2023 16:55</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-odds-bk/AX2wsnHa/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.99</v>
+        <v>1.22</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.94</v>
+        <v>1.2</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:58</t>
+          <t>16/07/2023 16:41</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.45</v>
+        <v>7.53</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.58</v>
+        <v>7.99</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:41</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.41</v>
+        <v>12.15</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.46</v>
+        <v>12.64</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>16/07/2023 16:55</t>
+          <t>16/07/2023 16:56</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-viking/6Jrx2mgP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-haugesund/Ic2st6W5/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>20/08/2023 16:34</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>4.31</v>
+        <v>4.41</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>5.29</v>
+        <v>4.65</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>20/08/2023 16:44</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>5.24</v>
+        <v>5.94</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>6.93</v>
+        <v>7.11</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>20/08/2023 16:44</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stabaek/CWHoZiKE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:34</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.41</v>
+        <v>4.31</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.65</v>
+        <v>5.29</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:44</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.94</v>
+        <v>5.24</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.11</v>
+        <v>6.93</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:44</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-sandefjord/0dEszY48/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-stabaek/CWHoZiKE/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.62</v>
+        <v>1.84</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.93</v>
+        <v>4.03</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4.41</v>
+        <v>4.04</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:49</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>21/09/2023 10:43</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1.9</v>
+        <v>4.21</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>24/09/2023 16:44</t>
+          <t>24/09/2023 16:59</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.26</v>
+        <v>3.62</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:56</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>6.05</v>
+        <v>3.93</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>6.76</v>
+        <v>4.41</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:49</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.63</v>
+        <v>2.16</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>17/09/2023 18:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>10.37</v>
+        <v>1.9</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>24/09/2023 16:58</t>
+          <t>24/09/2023 16:44</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-sarpsborg-08/K03bmruP/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>1.34</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:56</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.03</v>
+        <v>6.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4.04</v>
+        <v>6.76</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.95</v>
+        <v>7.63</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>21/09/2023 10:43</t>
+          <t>17/09/2023 18:43</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.21</v>
+        <v>10.37</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>24/09/2023 16:59</t>
+          <t>24/09/2023 16:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-rosenborg/OYTvdzqP/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-valerenga/Yq5jk4AC/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>3.21</v>
+        <v>2.31</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.26</v>
+        <v>2.51</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.29</v>
+        <v>3.04</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" t="n">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:53</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>4.36</v>
+        <v>3.83</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4.76</v>
+        <v>3.94</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:55</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>4.39</v>
+        <v>3.11</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>01/10/2023 18:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.12</v>
+        <v>3.28</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
         </is>
       </c>
     </row>
@@ -17777,30 +17777,30 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Aalesund</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>2</v>
-      </c>
       <c r="J189" t="n">
-        <v>1.37</v>
+        <v>2.15</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.29</v>
+        <v>2.03</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -17808,15 +17808,15 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>5.21</v>
+        <v>3.75</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,24 +17824,24 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>7.99</v>
+        <v>3.31</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>10.82</v>
+        <v>3.57</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:52</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.13</v>
+        <v>1.6</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:53</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.83</v>
+        <v>4.36</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.94</v>
+        <v>4.76</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:55</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.11</v>
+        <v>4.39</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.28</v>
+        <v>5.12</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>08/10/2023 16:51</t>
+          <t>08/10/2023 16:58</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-bodo-glimt/UZCNmCj5/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-rosenborg/GUTaUNkp/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,63 +17969,63 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.51</v>
+        <v>2.26</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:59</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.04</v>
+        <v>2.29</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
-          <t>01/10/2023 18:42</t>
+          <t>04/10/2023 18:12</t>
         </is>
       </c>
       <c r="T191" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>08/10/2023 16:58</t>
+          <t>08/10/2023 16:51</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stromsgodset/jqEJlhya/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stabaek-lillestrom/fLS3Ts5j/</t>
         </is>
       </c>
     </row>
@@ -18053,30 +18053,30 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>2.15</v>
+        <v>1.37</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.03</v>
+        <v>1.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
@@ -18084,15 +18084,15 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.75</v>
+        <v>5.21</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.9</v>
+        <v>5.99</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -18100,24 +18100,24 @@
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.31</v>
+        <v>7.99</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>04/10/2023 18:12</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.57</v>
+        <v>10.82</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>08/10/2023 16:52</t>
+          <t>08/10/2023 16:59</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-ham-kam/zXFVojLH/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-aalesund/ryMohRsi/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
         <v>3</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>2</v>
-      </c>
       <c r="J197" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>3.58</v>
+        <v>2.28</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>4.25</v>
+        <v>3.74</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>1.95</v>
+        <v>3.29</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>22/10/2023 16:53</t>
+          <t>22/10/2023 16:55</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J198" t="n">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.28</v>
+        <v>3.58</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.74</v>
+        <v>4.25</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,15 +18644,15 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.52</v>
+        <v>4.21</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>3.51</v>
+        <v>1.82</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.29</v>
+        <v>1.95</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>22/10/2023 16:55</t>
+          <t>22/10/2023 16:53</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-haugesund/j7C6m3dM/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-sarpsborg-08/4jAfj5C3/</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -19901,63 +19901,63 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="n">
-        <v>3.55</v>
+        <v>1.75</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.87</v>
+        <v>4.33</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>2</v>
+        <v>4.34</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>30/10/2023 21:13</t>
+          <t>29/10/2023 19:43</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>1.97</v>
+        <v>3.72</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/11/2023 16:59</t>
+          <t>05/11/2023 16:51</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-molde/CjUBFLuF/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-valerenga/jsTFEueL/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:59</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>4.33</v>
+        <v>4.64</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>4.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:59</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.34</v>
+        <v>5.76</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>29/10/2023 19:43</t>
+          <t>30/10/2023 18:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.72</v>
+        <v>4.29</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/11/2023 16:51</t>
+          <t>05/11/2023 16:59</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-valerenga/jsTFEueL/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-haugesund/URv7G1Q8/</t>
         </is>
       </c>
     </row>
@@ -20169,30 +20169,30 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G215" t="n">
+        <v>3</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
         <v>1</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
       <c r="J215" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
@@ -20200,15 +20200,15 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>4.64</v>
+        <v>3.87</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -20216,15 +20216,15 @@
         </is>
       </c>
       <c r="R215" t="n">
-        <v>5.76</v>
+        <v>2</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>30/10/2023 18:42</t>
+          <t>30/10/2023 21:13</t>
         </is>
       </c>
       <c r="T215" t="n">
-        <v>4.29</v>
+        <v>1.97</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-haugesund/URv7G1Q8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-molde/CjUBFLuF/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
         <v>1.88</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>12/11/2023 16:47</t>
+          <t>12/11/2023 16:54</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>12/11/2023 16:52</t>
+          <t>12/11/2023 16:54</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>4</v>
+        <v>3.93</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>08/11/2023 07:12</t>
         </is>
       </c>
       <c r="T219" t="n">
-        <v>3.87</v>
+        <v>4.19</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>12/11/2023 16:52</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-ham-kam/p4lkTvAE/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stabaek/xC6dRIvR/</t>
         </is>
       </c>
     </row>
@@ -20629,71 +20629,71 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="G220" t="n">
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
         <v>1</v>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Aalesund</t>
-        </is>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
       <c r="J220" t="n">
-        <v>1.1</v>
+        <v>1.94</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.09</v>
+        <v>1.81</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>12/11/2023 14:28</t>
+          <t>12/11/2023 16:59</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>12.84</v>
+        <v>4.25</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>12.16</v>
+        <v>4.7</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:59</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>17.21</v>
+        <v>3.54</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>06/11/2023 19:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T220" t="n">
-        <v>17.95</v>
+        <v>3.76</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>12/11/2023 16:42</t>
+          <t>12/11/2023 16:59</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-aalesund/ru4j8wYl/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sarpsborg-08/vRmgSbPK/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
         <v>1</v>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Tromso</t>
-        </is>
-      </c>
-      <c r="I221" t="n">
-        <v>2</v>
-      </c>
       <c r="J221" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,48 +20744,48 @@
         </is>
       </c>
       <c r="L221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
         <v>4</v>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:57</t>
-        </is>
-      </c>
-      <c r="N221" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O221" t="inlineStr">
+      <c r="S221" t="inlineStr">
         <is>
           <t>05/11/2023 19:43</t>
         </is>
       </c>
-      <c r="P221" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R221" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>05/11/2023 19:43</t>
-        </is>
-      </c>
       <c r="T221" t="n">
-        <v>1.92</v>
+        <v>3.87</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>12/11/2023 16:57</t>
+          <t>12/11/2023 16:52</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-tromso/Ue625yI7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-ham-kam/p4lkTvAE/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>2.74</v>
+        <v>1.1</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.14</v>
+        <v>1.09</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 14:28</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.65</v>
+        <v>12.84</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.89</v>
+        <v>12.16</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.5</v>
+        <v>17.21</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.23</v>
+        <v>17.95</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:42</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-rosenborg/6DkoUKf8/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-aalesund/ru4j8wYl/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1.87</v>
+        <v>4</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:54</t>
+          <t>12/11/2023 16:57</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:54</t>
+          <t>12/11/2023 16:59</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.93</v>
+        <v>2.37</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>08/11/2023 07:12</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>4.19</v>
+        <v>1.92</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/11/2023 16:58</t>
+          <t>12/11/2023 16:57</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-stabaek/xC6dRIvR/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-tromso/Ue625yI7/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G224" t="n">
+        <v>3</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
         <v>2</v>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Sarpsborg 08</t>
-        </is>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
       <c r="J224" t="n">
-        <v>1.94</v>
+        <v>2.74</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/11/2023 16:59</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>4.25</v>
+        <v>3.65</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4.7</v>
+        <v>3.89</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/11/2023 16:59</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.54</v>
+        <v>2.5</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 19:12</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>3.76</v>
+        <v>3.23</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/11/2023 16:59</t>
+          <t>12/11/2023 16:58</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-sarpsborg-08/vRmgSbPK/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-rosenborg/6DkoUKf8/</t>
         </is>
       </c>
     </row>
@@ -21181,22 +21181,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
         <v>1</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Molde</t>
-        </is>
-      </c>
-      <c r="I226" t="n">
-        <v>3</v>
-      </c>
       <c r="J226" t="n">
-        <v>2.59</v>
+        <v>1.44</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -21204,15 +21204,15 @@
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.23</v>
+        <v>1.66</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>26/11/2023 16:05</t>
+          <t>26/11/2023 16:55</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>3.77</v>
+        <v>4.57</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -21220,15 +21220,15 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>26/11/2023 16:05</t>
+          <t>26/11/2023 16:59</t>
         </is>
       </c>
       <c r="R226" t="n">
-        <v>2.59</v>
+        <v>6.62</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -21236,16 +21236,16 @@
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.9</v>
+        <v>5.53</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>26/11/2023 16:05</t>
+          <t>26/11/2023 16:55</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-molde/QyupIE1D/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-haugesund/G4jePV8t/</t>
         </is>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -21281,14 +21281,14 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="I227" t="n">
         <v>3</v>
       </c>
       <c r="J227" t="n">
-        <v>1.78</v>
+        <v>2.59</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -21296,15 +21296,15 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1.89</v>
+        <v>2.23</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>26/11/2023 16:54</t>
+          <t>26/11/2023 16:05</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>4.15</v>
+        <v>3.77</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -21312,15 +21312,15 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3.96</v>
+        <v>3.98</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>26/11/2023 16:52</t>
+          <t>26/11/2023 16:05</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>4.22</v>
+        <v>2.59</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -21328,16 +21328,16 @@
         </is>
       </c>
       <c r="T227" t="n">
-        <v>3.76</v>
+        <v>2.9</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>26/11/2023 16:54</t>
+          <t>26/11/2023 16:05</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stromsgodset/CYztJfn7/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sarpsborg-08-molde/QyupIE1D/</t>
         </is>
       </c>
     </row>
@@ -21365,22 +21365,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stromsgodset</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,15 +21388,15 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>26/11/2023 16:53</t>
+          <t>26/11/2023 16:54</t>
         </is>
       </c>
       <c r="N228" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,15 +21404,15 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4.03</v>
+        <v>3.96</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>26/11/2023 16:56</t>
+          <t>26/11/2023 16:52</t>
         </is>
       </c>
       <c r="R228" t="n">
-        <v>6.01</v>
+        <v>4.22</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -21420,16 +21420,16 @@
         </is>
       </c>
       <c r="T228" t="n">
-        <v>5.23</v>
+        <v>3.76</v>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>26/11/2023 16:53</t>
+          <t>26/11/2023 16:54</t>
         </is>
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-odds-bk/U9oyKzX0/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/rosenborg-stromsgodset/CYztJfn7/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="I230" t="n">
         <v>2</v>
       </c>
       <c r="J230" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,48 +21572,48 @@
         </is>
       </c>
       <c r="L230" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
         <v>1.76</v>
       </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>26/11/2023 16:59</t>
-        </is>
-      </c>
-      <c r="N230" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>13/11/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P230" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>26/11/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R230" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S230" t="inlineStr">
-        <is>
-          <t>13/11/2023 10:12</t>
-        </is>
-      </c>
-      <c r="T230" t="n">
-        <v>3.92</v>
-      </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>26/11/2023 16:59</t>
+          <t>26/11/2023 16:58</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-bodo-glimt/MqrTLd2l/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-valerenga/jJnXKGHf/</t>
         </is>
       </c>
     </row>
@@ -21641,22 +21641,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>3.87</v>
+        <v>1.76</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>26/11/2023 16:52</t>
+          <t>26/11/2023 16:59</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>4.28</v>
+        <v>3.79</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>4.18</v>
+        <v>4.43</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         </is>
       </c>
       <c r="R231" t="n">
-        <v>1.73</v>
+        <v>2.76</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>1.82</v>
+        <v>3.92</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>26/11/2023 16:52</t>
+          <t>26/11/2023 16:59</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-viking/rgqPMxmr/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/brann-bodo-glimt/MqrTLd2l/</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -21741,14 +21741,14 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J232" t="n">
-        <v>2.75</v>
+        <v>4.05</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>4.58</v>
+        <v>3.87</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>26/11/2023 16:58</t>
+          <t>26/11/2023 16:52</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3.53</v>
+        <v>4.28</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3.81</v>
+        <v>4.18</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>26/11/2023 16:58</t>
+          <t>26/11/2023 16:59</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>2.56</v>
+        <v>1.73</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>26/11/2023 16:58</t>
+          <t>26/11/2023 16:52</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/ham-kam-valerenga/jJnXKGHf/</t>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/aalesund-viking/rgqPMxmr/</t>
         </is>
       </c>
     </row>
@@ -21825,71 +21825,807 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>4</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>4</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/lillestrom-odds-bk/U9oyKzX0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Valerenga</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
           <t>Tromso</t>
         </is>
       </c>
-      <c r="G233" t="n">
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/valerenga-tromso/CC1LH57U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
         <v>2</v>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Sarpsborg 08</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/bodo-glimt-sarpsborg-08/dG7hOkOn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F236" t="inlineStr">
         <is>
           <t>Haugesund</t>
         </is>
       </c>
-      <c r="I233" t="n">
+      <c r="G236" t="n">
+        <v>3</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:07</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:07</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>27/11/2023 15:07</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/haugesund-stabaek/z76dN9wg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
         <v>1</v>
       </c>
-      <c r="J233" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>13/11/2023 10:12</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>26/11/2023 16:55</t>
-        </is>
-      </c>
-      <c r="N233" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>13/11/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>26/11/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>13/11/2023 10:12</t>
-        </is>
-      </c>
-      <c r="T233" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>26/11/2023 16:55</t>
-        </is>
-      </c>
-      <c r="V233" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/norway/eliteserien/tromso-haugesund/G4jePV8t/</t>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>HamKam</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/molde-ham-kam/UT50MTha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Odd</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>4</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Aalesund</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/odds-bk-aalesund/rX94Lm85/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sandefjord</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/sandefjord-lillestrom/Qea9K7NB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Stromsgodset</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>3</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:32</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/stromsgodset-brann/4nbDJRxI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>norway</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>eliteserien</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Rosenborg</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>5</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T241" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/norway/eliteserien/viking-rosenborg/YL2HIohO/</t>
         </is>
       </c>
     </row>
